--- a/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.20878033352746</v>
+        <v>21.20878033352755</v>
       </c>
       <c r="C2">
-        <v>14.87609854404245</v>
+        <v>14.87609854404232</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.43794675033522</v>
+        <v>11.4379467503352</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.25475681996554</v>
+        <v>34.25475681996531</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.27932485678154</v>
+        <v>18.2793248567816</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67905918726698</v>
+        <v>19.67905918726694</v>
       </c>
       <c r="C3">
-        <v>13.84892362351576</v>
+        <v>13.84892362351577</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.78728058170088</v>
+        <v>10.78728058170086</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.39606221002909</v>
+        <v>32.39606221002911</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.99098745133105</v>
+        <v>16.99098745133104</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69468946974161</v>
+        <v>18.69468946974165</v>
       </c>
       <c r="C4">
-        <v>13.18956922883871</v>
+        <v>13.18956922883886</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.38253118556238</v>
+        <v>10.38253118556235</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.24459047558912</v>
+        <v>31.24459047558902</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.16389086193573</v>
+        <v>16.16389086193576</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28193720309104</v>
+        <v>18.28193720309106</v>
       </c>
       <c r="C5">
-        <v>12.91348894830726</v>
+        <v>12.91348894830732</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.21634851446654</v>
+        <v>10.21634851446658</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>30.77295215958146</v>
+        <v>30.7729521595814</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.81754865373971</v>
+        <v>15.81754865373973</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21269110509303</v>
+        <v>18.21269110509304</v>
       </c>
       <c r="C6">
-        <v>12.86719497296539</v>
+        <v>12.86719497296515</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.18868190087212</v>
+        <v>10.1886819008721</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>30.69449890799833</v>
+        <v>30.6944989079983</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.75947127501776</v>
+        <v>15.75947127501772</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68917031203037</v>
+        <v>18.6891703120304</v>
       </c>
       <c r="C7">
-        <v>13.18587604937217</v>
+        <v>13.18587604937208</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.38029489463901</v>
+        <v>10.380294894639</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>31.23823922461467</v>
+        <v>31.23823922461468</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.15925788349176</v>
+        <v>16.15925788349182</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.69052686271817</v>
+        <v>20.69052686271812</v>
       </c>
       <c r="C8">
-        <v>14.52776241259354</v>
+        <v>14.52776241259344</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.6160637927978</v>
+        <v>33.6160637927979</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.84244357386206</v>
+        <v>17.84244357386203</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.2706905929109</v>
+        <v>24.270690592911</v>
       </c>
       <c r="C9">
-        <v>16.94119036542983</v>
+        <v>16.94119036542997</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.8088292749582</v>
+        <v>12.80882927495824</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>38.19731900575595</v>
+        <v>38.1973190057561</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.86884125617703</v>
+        <v>20.86884125617712</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.71230313936216</v>
+        <v>26.71230313936218</v>
       </c>
       <c r="C10">
-        <v>18.5968736771618</v>
+        <v>18.59687367716213</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.95750654628374</v>
+        <v>13.95750654628377</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>41.5236691530528</v>
+        <v>41.52366915305291</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.94402608818563</v>
+        <v>22.94402608818568</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.78769699059957</v>
+        <v>27.7876969905996</v>
       </c>
       <c r="C11">
-        <v>19.32880091927017</v>
+        <v>19.32880091927003</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.51873938361276</v>
+        <v>14.5187393836128</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>43.03394128798491</v>
+        <v>43.03394128798497</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.8609779149064</v>
+        <v>23.86097791490643</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>28.19040187261616</v>
       </c>
       <c r="C12">
-        <v>19.60333429939913</v>
+        <v>19.60333429939914</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.74223051869127</v>
+        <v>14.7422305186912</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>43.60614482252584</v>
+        <v>43.60614482252587</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.20482471834552</v>
+        <v>24.20482471834546</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.10386352515197</v>
+        <v>28.10386352515202</v>
       </c>
       <c r="C13">
-        <v>19.54431807439297</v>
+        <v>19.54431807439306</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.48288354792407</v>
+        <v>43.48288354792405</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.13091255751411</v>
+        <v>24.13091255751414</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.8209149148846</v>
+        <v>27.82091491488464</v>
       </c>
       <c r="C14">
-        <v>19.35143698083434</v>
+        <v>19.35143698083412</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.53715715080666</v>
+        <v>14.53715715080674</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>43.0810059752139</v>
+        <v>43.08100597521405</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.88933096815581</v>
+        <v>23.88933096815585</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.64702965251772</v>
+        <v>27.64702965251776</v>
       </c>
       <c r="C15">
-        <v>19.23296293142874</v>
+        <v>19.23296293142872</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.44078050719995</v>
+        <v>14.44078050719994</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>42.83490800750409</v>
+        <v>42.83490800750433</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.74093130415465</v>
+        <v>23.74093130415462</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.64135843807908</v>
+        <v>26.6413584380791</v>
       </c>
       <c r="C16">
-        <v>18.54864746541679</v>
+        <v>18.54864746541688</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.42496684353926</v>
+        <v>41.4249668435392</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.88359810627911</v>
+        <v>22.88359810627917</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.01573503734506</v>
+        <v>26.0157350373449</v>
       </c>
       <c r="C17">
-        <v>18.12367824609932</v>
+        <v>18.12367824609948</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.62527046015635</v>
+        <v>13.6252704601563</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>40.55970896598431</v>
+        <v>40.55970896598409</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.35105648284676</v>
+        <v>22.3510564828467</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.6525317382984</v>
+        <v>25.65253173829849</v>
       </c>
       <c r="C18">
-        <v>17.87721754524028</v>
+        <v>17.87721754524036</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.45343287427287</v>
+        <v>13.45343287427289</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>40.06170714618085</v>
+        <v>40.06170714618109</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.04217059049046</v>
+        <v>22.04217059049052</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52896459944524</v>
+        <v>25.52896459944528</v>
       </c>
       <c r="C19">
-        <v>17.79340984880502</v>
+        <v>17.79340984880481</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.39519424525978</v>
+        <v>13.39519424525977</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>39.89301774042614</v>
+        <v>39.89301774042605</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.93712955258606</v>
+        <v>21.93712955258608</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.08267786842361</v>
+        <v>26.0826778684235</v>
       </c>
       <c r="C20">
-        <v>18.16912416782724</v>
+        <v>18.16912416782733</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.6570479128596</v>
+        <v>13.65704791285961</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>40.65184667117556</v>
+        <v>40.65184667117561</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>27.90414166730377</v>
       </c>
       <c r="C21">
-        <v>19.40815848847071</v>
+        <v>19.40815848847052</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.58331613150606</v>
+        <v>14.58331613150602</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.19903229314136</v>
+        <v>43.19903229314102</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.96037665476273</v>
+        <v>23.96037665476267</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.06853637801759</v>
+        <v>29.06853637801758</v>
       </c>
       <c r="C22">
-        <v>20.20285636830766</v>
+        <v>20.20285636830764</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.23117121027326</v>
+        <v>15.23117121027321</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>44.86599583348377</v>
+        <v>44.86599583348362</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.95552386117613</v>
+        <v>24.95552386117609</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>28.44925091181815</v>
       </c>
       <c r="C23">
-        <v>19.77992994580304</v>
+        <v>19.77992994580286</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.88612792234667</v>
+        <v>14.88612792234669</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>43.97580438329293</v>
+        <v>43.97580438329303</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.42597913061339</v>
+        <v>24.4259791306134</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.05242403160932</v>
+        <v>26.05242403160921</v>
       </c>
       <c r="C24">
-        <v>18.14858476380298</v>
+        <v>18.14858476380294</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.6426825131026</v>
+        <v>13.64268251310253</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>40.6101929895123</v>
+        <v>40.61019298951187</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.38226997397595</v>
+        <v>22.38226997397584</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.33700613804392</v>
+        <v>23.33700613804394</v>
       </c>
       <c r="C25">
-        <v>16.31018003018817</v>
+        <v>16.31018003018815</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.38196996543786</v>
+        <v>12.38196996543787</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>36.96621366054659</v>
+        <v>36.96621366054663</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.07769550362303</v>
+        <v>20.077695503623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.20878033352755</v>
+        <v>21.20878033352746</v>
       </c>
       <c r="C2">
-        <v>14.87609854404232</v>
+        <v>14.87609854404245</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.4379467503352</v>
+        <v>11.43794675033522</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.25475681996531</v>
+        <v>34.25475681996554</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.2793248567816</v>
+        <v>18.27932485678154</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67905918726694</v>
+        <v>19.67905918726698</v>
       </c>
       <c r="C3">
-        <v>13.84892362351577</v>
+        <v>13.84892362351576</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.78728058170086</v>
+        <v>10.78728058170088</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.39606221002911</v>
+        <v>32.39606221002909</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.99098745133104</v>
+        <v>16.99098745133105</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69468946974165</v>
+        <v>18.69468946974161</v>
       </c>
       <c r="C4">
-        <v>13.18956922883886</v>
+        <v>13.18956922883871</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.38253118556235</v>
+        <v>10.38253118556238</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.24459047558902</v>
+        <v>31.24459047558912</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.16389086193576</v>
+        <v>16.16389086193573</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28193720309106</v>
+        <v>18.28193720309104</v>
       </c>
       <c r="C5">
-        <v>12.91348894830732</v>
+        <v>12.91348894830726</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.21634851446658</v>
+        <v>10.21634851446654</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.7729521595814</v>
+        <v>30.77295215958146</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.81754865373973</v>
+        <v>15.81754865373971</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21269110509304</v>
+        <v>18.21269110509303</v>
       </c>
       <c r="C6">
-        <v>12.86719497296515</v>
+        <v>12.86719497296539</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.1886819008721</v>
+        <v>10.18868190087212</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.6944989079983</v>
+        <v>30.69449890799833</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.75947127501772</v>
+        <v>15.75947127501776</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.6891703120304</v>
+        <v>18.68917031203037</v>
       </c>
       <c r="C7">
-        <v>13.18587604937208</v>
+        <v>13.18587604937217</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.380294894639</v>
+        <v>10.38029489463901</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.23823922461468</v>
+        <v>31.23823922461467</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.15925788349182</v>
+        <v>16.15925788349176</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.69052686271812</v>
+        <v>20.69052686271817</v>
       </c>
       <c r="C8">
-        <v>14.52776241259344</v>
+        <v>14.52776241259354</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.6160637927979</v>
+        <v>33.6160637927978</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.84244357386203</v>
+        <v>17.84244357386206</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.270690592911</v>
+        <v>24.2706905929109</v>
       </c>
       <c r="C9">
-        <v>16.94119036542997</v>
+        <v>16.94119036542983</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.80882927495824</v>
+        <v>12.8088292749582</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.1973190057561</v>
+        <v>38.19731900575595</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.86884125617712</v>
+        <v>20.86884125617703</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.71230313936218</v>
+        <v>26.71230313936216</v>
       </c>
       <c r="C10">
-        <v>18.59687367716213</v>
+        <v>18.5968736771618</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.95750654628377</v>
+        <v>13.95750654628374</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.52366915305291</v>
+        <v>41.5236691530528</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.94402608818568</v>
+        <v>22.94402608818563</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.7876969905996</v>
+        <v>27.78769699059957</v>
       </c>
       <c r="C11">
-        <v>19.32880091927003</v>
+        <v>19.32880091927017</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.5187393836128</v>
+        <v>14.51873938361276</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>43.03394128798497</v>
+        <v>43.03394128798491</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.86097791490643</v>
+        <v>23.8609779149064</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>28.19040187261616</v>
       </c>
       <c r="C12">
-        <v>19.60333429939914</v>
+        <v>19.60333429939913</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.7422305186912</v>
+        <v>14.74223051869127</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.60614482252587</v>
+        <v>43.60614482252584</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.20482471834546</v>
+        <v>24.20482471834552</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.10386352515202</v>
+        <v>28.10386352515197</v>
       </c>
       <c r="C13">
-        <v>19.54431807439306</v>
+        <v>19.54431807439297</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.48288354792405</v>
+        <v>43.48288354792407</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.13091255751414</v>
+        <v>24.13091255751411</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.82091491488464</v>
+        <v>27.8209149148846</v>
       </c>
       <c r="C14">
-        <v>19.35143698083412</v>
+        <v>19.35143698083434</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.53715715080674</v>
+        <v>14.53715715080666</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>43.08100597521405</v>
+        <v>43.0810059752139</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.88933096815585</v>
+        <v>23.88933096815581</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.64702965251776</v>
+        <v>27.64702965251772</v>
       </c>
       <c r="C15">
-        <v>19.23296293142872</v>
+        <v>19.23296293142874</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.44078050719994</v>
+        <v>14.44078050719995</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.83490800750433</v>
+        <v>42.83490800750409</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.74093130415462</v>
+        <v>23.74093130415465</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.6413584380791</v>
+        <v>26.64135843807908</v>
       </c>
       <c r="C16">
-        <v>18.54864746541688</v>
+        <v>18.54864746541679</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.4249668435392</v>
+        <v>41.42496684353926</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.88359810627917</v>
+        <v>22.88359810627911</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.0157350373449</v>
+        <v>26.01573503734506</v>
       </c>
       <c r="C17">
-        <v>18.12367824609948</v>
+        <v>18.12367824609932</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.6252704601563</v>
+        <v>13.62527046015635</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.55970896598409</v>
+        <v>40.55970896598431</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.3510564828467</v>
+        <v>22.35105648284676</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65253173829849</v>
+        <v>25.6525317382984</v>
       </c>
       <c r="C18">
-        <v>17.87721754524036</v>
+        <v>17.87721754524028</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.45343287427289</v>
+        <v>13.45343287427287</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.06170714618109</v>
+        <v>40.06170714618085</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.04217059049052</v>
+        <v>22.04217059049046</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52896459944528</v>
+        <v>25.52896459944524</v>
       </c>
       <c r="C19">
-        <v>17.79340984880481</v>
+        <v>17.79340984880502</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.39519424525977</v>
+        <v>13.39519424525978</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>39.89301774042605</v>
+        <v>39.89301774042614</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.93712955258608</v>
+        <v>21.93712955258606</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.0826778684235</v>
+        <v>26.08267786842361</v>
       </c>
       <c r="C20">
-        <v>18.16912416782733</v>
+        <v>18.16912416782724</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.65704791285961</v>
+        <v>13.6570479128596</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>40.65184667117561</v>
+        <v>40.65184667117556</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>27.90414166730377</v>
       </c>
       <c r="C21">
-        <v>19.40815848847052</v>
+        <v>19.40815848847071</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.58331613150602</v>
+        <v>14.58331613150606</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.19903229314102</v>
+        <v>43.19903229314136</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.96037665476267</v>
+        <v>23.96037665476273</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.06853637801758</v>
+        <v>29.06853637801759</v>
       </c>
       <c r="C22">
-        <v>20.20285636830764</v>
+        <v>20.20285636830766</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.23117121027321</v>
+        <v>15.23117121027326</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.86599583348362</v>
+        <v>44.86599583348377</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.95552386117609</v>
+        <v>24.95552386117613</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>28.44925091181815</v>
       </c>
       <c r="C23">
-        <v>19.77992994580286</v>
+        <v>19.77992994580304</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.88612792234669</v>
+        <v>14.88612792234667</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.97580438329303</v>
+        <v>43.97580438329293</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.4259791306134</v>
+        <v>24.42597913061339</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.05242403160921</v>
+        <v>26.05242403160932</v>
       </c>
       <c r="C24">
-        <v>18.14858476380294</v>
+        <v>18.14858476380298</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.64268251310253</v>
+        <v>13.6426825131026</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>40.61019298951187</v>
+        <v>40.6101929895123</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.38226997397584</v>
+        <v>22.38226997397595</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.33700613804394</v>
+        <v>23.33700613804392</v>
       </c>
       <c r="C25">
-        <v>16.31018003018815</v>
+        <v>16.31018003018817</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.38196996543787</v>
+        <v>12.38196996543786</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>36.96621366054663</v>
+        <v>36.96621366054659</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.077695503623</v>
+        <v>20.07769550362303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.20878033352746</v>
+        <v>21.20729915775592</v>
       </c>
       <c r="C2">
-        <v>14.87609854404245</v>
+        <v>14.87426553735584</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.43794675033522</v>
+        <v>11.43735091392355</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.25475681996554</v>
+        <v>33.34255700304515</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>34.25265555238164</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,33 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.27932485678154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.27835556343814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67905918726698</v>
+        <v>19.67802928103113</v>
       </c>
       <c r="C3">
-        <v>13.84892362351576</v>
+        <v>13.84760545406583</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.78728058170088</v>
+        <v>10.78681744939907</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.39606221002909</v>
+        <v>31.26982407994575</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>32.39544949830743</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,33 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.99098745133105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>16.99030798760834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69468946974161</v>
+        <v>18.6939216114981</v>
       </c>
       <c r="C4">
-        <v>13.18956922883871</v>
+        <v>13.18856252073584</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.38253118556238</v>
+        <v>10.38215879802805</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.24459047558912</v>
+        <v>29.9720677666172</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>31.2450526377121</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,33 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.16389086193573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.16338066384237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28193720309104</v>
+        <v>18.28127297078167</v>
       </c>
       <c r="C5">
-        <v>12.91348894830726</v>
+        <v>12.91260871219751</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.21634851446654</v>
+        <v>10.21601574222562</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.77295215958146</v>
+        <v>29.4370199624785</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>30.77389422933206</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,33 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.81754865373971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.81710576594411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21269110509303</v>
+        <v>18.21204390528565</v>
       </c>
       <c r="C6">
-        <v>12.86719497296539</v>
+        <v>12.86633573038848</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.18868190087212</v>
+        <v>10.18835587437863</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.69449890799833</v>
+        <v>29.34780696213408</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>30.69552323400007</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,33 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.75947127501776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.7590394774939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68917031203037</v>
+        <v>18.6884038633676</v>
       </c>
       <c r="C7">
-        <v>13.18587604937217</v>
+        <v>13.18487104782365</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.38029489463901</v>
+        <v>10.37992303031152</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.23823922461467</v>
+        <v>29.96487679116401</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>31.23870768758568</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,33 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.15925788349176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.15874859927266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.69052686271817</v>
+        <v>20.68920480801406</v>
       </c>
       <c r="C8">
-        <v>14.52776241259354</v>
+        <v>14.52610833563589</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.21471333676955</v>
+        <v>11.2141615271516</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.6160637927978</v>
+        <v>32.63310677657157</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>33.6144432986567</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,33 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.84244357386206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17.84157634896627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.2706905929109</v>
+        <v>24.26812593474629</v>
       </c>
       <c r="C9">
-        <v>16.94119036542983</v>
+        <v>16.93819072880095</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.8088292749582</v>
+        <v>12.80798269631856</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.19731900575595</v>
+        <v>37.6693805596205</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.19280692745728</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,33 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.86884125617703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>20.86717588642419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.71230313936216</v>
+        <v>26.70867353716145</v>
       </c>
       <c r="C10">
-        <v>18.5968736771618</v>
+        <v>18.5927829614468</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.95750654628374</v>
+        <v>13.95645401134873</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.5236691530528</v>
+        <v>41.26559222166149</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>41.51765866118537</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,33 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.94402608818563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>22.94166922211833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.78769699059957</v>
+        <v>27.78353236454351</v>
       </c>
       <c r="C11">
-        <v>19.32880091927017</v>
+        <v>19.32417515745333</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.51873938361276</v>
+        <v>14.51843576263826</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>43.03394128798491</v>
+        <v>42.88585816011518</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>43.02735798031706</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,33 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.8609779149064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>23.85826988025941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.19040187261616</v>
+        <v>28.18602544176426</v>
       </c>
       <c r="C12">
-        <v>19.60333429939913</v>
+        <v>19.59849860222469</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.74223051869127</v>
+        <v>14.74190409601883</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.60614482252584</v>
+        <v>43.49797844120055</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>43.59935761038562</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,33 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.20482471834552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24.20197692073596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.10386352515197</v>
+        <v>28.09953315556719</v>
       </c>
       <c r="C13">
-        <v>19.54431807439297</v>
+        <v>19.53952794883535</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.69416518226952</v>
+        <v>14.69384380208684</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.48288354792407</v>
+        <v>43.3661959792007</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>43.47613971860731</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,33 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.13091255751411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24.1280951904922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.8209149148846</v>
+        <v>27.8167330607549</v>
       </c>
       <c r="C14">
-        <v>19.35143698083434</v>
+        <v>19.34679410586718</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.53715715080666</v>
+        <v>14.53685171197072</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>43.0810059752139</v>
+        <v>42.93624103252743</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>43.07440564819548</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,33 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.88933096815581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>23.88661158117396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.64702965251772</v>
+        <v>27.6429375043901</v>
       </c>
       <c r="C15">
-        <v>19.23296293142874</v>
+        <v>19.228409238569</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.44078050719995</v>
+        <v>14.44048446244135</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.83490800750409</v>
+        <v>42.67272181159527</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>42.82839718810247</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,33 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.74093130415465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>23.73827099769451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.64135843807908</v>
+        <v>26.63776262879091</v>
       </c>
       <c r="C16">
-        <v>18.54864746541679</v>
+        <v>18.54459079592169</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.92351052403433</v>
+        <v>13.9224642631897</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.42496684353926</v>
+        <v>41.1594532488442</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>41.4189957599879</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,33 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.88359810627911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>22.88126333194175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.01573503734506</v>
+        <v>26.01242953040122</v>
       </c>
       <c r="C17">
-        <v>18.12367824609932</v>
+        <v>18.1199154387063</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.62527046015635</v>
+        <v>13.62427858322999</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.55970896598431</v>
+        <v>40.22760901140664</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>40.55409511074905</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,33 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.35105648284676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.34891106934181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.6525317382984</v>
+        <v>25.6493885845591</v>
       </c>
       <c r="C18">
-        <v>17.87721754524028</v>
+        <v>17.87362024142918</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.45343287427287</v>
+        <v>13.45247189110933</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.06170714618085</v>
+        <v>39.69010076506637</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>40.05630917957782</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,33 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.04217059049046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.04013075697311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52896459944524</v>
+        <v>25.5258756734825</v>
       </c>
       <c r="C19">
-        <v>17.79340984880502</v>
+        <v>17.78986802475135</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.39519424525978</v>
+        <v>13.39424367600258</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>39.89301774042614</v>
+        <v>39.50782466048138</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>39.88769473377689</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,33 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.93712955258606</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>21.93512493416382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.08267786842361</v>
+        <v>26.07934194906281</v>
       </c>
       <c r="C20">
-        <v>18.16912416782724</v>
+        <v>18.16533045390916</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.6570479128596</v>
+        <v>13.65605029156667</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>40.65184667117556</v>
+        <v>40.3269592113808</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>40.64619372771438</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,33 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.40801027010667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.40584505383309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.90414166730377</v>
+        <v>27.89991645815631</v>
       </c>
       <c r="C21">
-        <v>19.40815848847071</v>
+        <v>19.40347257731466</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.58331613150606</v>
+        <v>14.58300608910024</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.19903229314136</v>
+        <v>43.06256066149576</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>43.19238948620935</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,33 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.96037665476273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>23.95762868682319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.06853637801759</v>
+        <v>29.06367504732539</v>
       </c>
       <c r="C22">
-        <v>20.20285636830766</v>
+        <v>20.1975435165345</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.23117121027326</v>
+        <v>15.23078888898492</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.86599583348377</v>
+        <v>44.84259482337225</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>44.85878033263231</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,33 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.95552386117613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24.95235447998261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.44925091181815</v>
+        <v>28.444734888999</v>
       </c>
       <c r="C23">
-        <v>19.77992994580304</v>
+        <v>19.7749564114115</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.88612792234667</v>
+        <v>14.88578593407211</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.97580438329293</v>
+        <v>43.89294391800346</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>43.96888874475658</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,33 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.42597913061339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>24.42303898724819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.05242403160932</v>
+        <v>26.04910187571979</v>
       </c>
       <c r="C24">
-        <v>18.14858476380298</v>
+        <v>18.14480503331603</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.6426825131026</v>
+        <v>13.64168748994249</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>40.6101929895123</v>
+        <v>40.28204858392075</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>40.6045576849476</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,33 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.38226997397595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22.38011372065941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.33700613804392</v>
+        <v>23.33479935158158</v>
       </c>
       <c r="C25">
-        <v>16.31018003018817</v>
+        <v>16.3075576307787</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.38196996543786</v>
+        <v>12.38119923922422</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>36.96621366054659</v>
+        <v>36.32690563543986</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>36.96236546143092</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.07769550362303</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.07626059999117</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.20729915775592</v>
+        <v>24.92292306368267</v>
       </c>
       <c r="C2">
-        <v>14.87426553735584</v>
+        <v>18.28151295676616</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.43735091392355</v>
+        <v>17.03694363130786</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>42.10890596924213</v>
       </c>
       <c r="G2">
-        <v>33.34255700304515</v>
+        <v>2.059548200784494</v>
       </c>
       <c r="H2">
-        <v>34.25265555238164</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.25540863320255</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,39 +454,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.27835556343814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>22.82817926409921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67802928103113</v>
+        <v>23.15050763693587</v>
       </c>
       <c r="C3">
-        <v>13.84760545406583</v>
+        <v>17.00689423156183</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.78681744939907</v>
+        <v>16.06704536486438</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>39.93961564687322</v>
       </c>
       <c r="G3">
-        <v>31.26982407994575</v>
+        <v>2.071433402465247</v>
       </c>
       <c r="H3">
-        <v>32.39544949830743</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.27204278594996</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,39 +501,45 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.99030798760834</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>22.02360470487367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6939216114981</v>
+        <v>22.00685337222373</v>
       </c>
       <c r="C4">
-        <v>13.18856252073584</v>
+        <v>16.18449730761368</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.38215879802805</v>
+        <v>15.44935758907382</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>38.60554644050715</v>
       </c>
       <c r="G4">
-        <v>29.9720677666172</v>
+        <v>2.078857483757949</v>
       </c>
       <c r="H4">
-        <v>31.2450526377121</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.287904340355892</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,39 +548,45 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.16338066384237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>21.5609652616831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28127297078167</v>
+        <v>21.52663151226141</v>
       </c>
       <c r="C5">
-        <v>12.91260871219751</v>
+        <v>15.8391800133086</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.21601574222562</v>
+        <v>15.19223137597122</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>38.06180274379332</v>
       </c>
       <c r="G5">
-        <v>29.4370199624785</v>
+        <v>2.081918315399554</v>
       </c>
       <c r="H5">
-        <v>30.77389422933206</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.295693403652009</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,39 +595,45 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.81710576594411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>21.38018265773184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21204390528565</v>
+        <v>21.44602812607465</v>
       </c>
       <c r="C6">
-        <v>12.86633573038848</v>
+        <v>15.78122021230587</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.18835587437863</v>
+        <v>15.14921457691642</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>37.9715236913867</v>
       </c>
       <c r="G6">
-        <v>29.34780696213408</v>
+        <v>2.082428806067792</v>
       </c>
       <c r="H6">
-        <v>30.69552323400007</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.297064170007105</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,39 +642,45 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.7590394774939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>21.35062729451465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.6884038633676</v>
+        <v>22.00043463354228</v>
       </c>
       <c r="C7">
-        <v>13.18487104782365</v>
+        <v>16.17988170232316</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.37992303031152</v>
+        <v>15.44591156150488</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>38.5982130578514</v>
       </c>
       <c r="G7">
-        <v>29.96487679116401</v>
+        <v>2.078898615055782</v>
       </c>
       <c r="H7">
-        <v>31.23870768758568</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.288004140705992</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,39 +689,45 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.15874859927266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>21.55849599537299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68920480801406</v>
+        <v>24.32313466241875</v>
       </c>
       <c r="C8">
-        <v>14.52610833563589</v>
+        <v>17.85016565947035</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.2141615271516</v>
+        <v>16.70720286157913</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>41.36159046888723</v>
       </c>
       <c r="G8">
-        <v>32.63310677657157</v>
+        <v>2.063622261841427</v>
       </c>
       <c r="H8">
-        <v>33.6144432986567</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.259912603762954</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,39 +736,45 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.84157634896627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>22.54416726274743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.26812593474629</v>
+        <v>28.45071397361317</v>
       </c>
       <c r="C9">
-        <v>16.93819072880095</v>
+        <v>20.81904936323938</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.80798269631856</v>
+        <v>19.00039834988623</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>46.75250183216735</v>
       </c>
       <c r="G9">
-        <v>37.6693805596205</v>
+        <v>2.034484619600261</v>
       </c>
       <c r="H9">
-        <v>38.19280692745728</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.254275246316728</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,39 +783,45 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.86717588642419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>24.73257050787316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.70867353716145</v>
+        <v>31.24175991136971</v>
       </c>
       <c r="C10">
-        <v>18.5927829614468</v>
+        <v>22.82757016673301</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.95645401134873</v>
+        <v>20.57317930670338</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>50.69329262316343</v>
       </c>
       <c r="G10">
-        <v>41.26559222166149</v>
+        <v>2.013282597782368</v>
       </c>
       <c r="H10">
-        <v>41.51765866118537</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.28730708107</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,39 +830,45 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.94166922211833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>26.50741962182075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.78353236454351</v>
+        <v>32.46391297995872</v>
       </c>
       <c r="C11">
-        <v>19.32417515745333</v>
+        <v>23.70745761801821</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.51843576263826</v>
+        <v>21.26484794348702</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>52.48490314195724</v>
       </c>
       <c r="G11">
-        <v>42.88585816011518</v>
+        <v>2.003603813303537</v>
       </c>
       <c r="H11">
-        <v>43.02735798031706</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.312149062793337</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,39 +877,45 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.85826988025941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>27.35469510327476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.18602544176426</v>
+        <v>32.92034879773859</v>
       </c>
       <c r="C12">
-        <v>19.59849860222469</v>
+        <v>24.03614345666138</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.74190409601883</v>
+        <v>21.5234425101627</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>53.16371436077564</v>
       </c>
       <c r="G12">
-        <v>43.49797844120055</v>
+        <v>1.999926105194513</v>
       </c>
       <c r="H12">
-        <v>43.59935761038562</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.32313072146472</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,39 +924,45 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.20197692073596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>27.68168908155547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.09953315556719</v>
+        <v>32.82232223671129</v>
       </c>
       <c r="C13">
-        <v>19.53952794883535</v>
+        <v>23.96554943056971</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.69384380208684</v>
+        <v>21.46789539688859</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>53.01749311958288</v>
       </c>
       <c r="G13">
-        <v>43.3661959792007</v>
+        <v>2.000718859982581</v>
       </c>
       <c r="H13">
-        <v>43.47613971860731</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.320692811754397</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,39 +971,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.1280951904922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>27.61098365276182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.8167330607549</v>
+        <v>32.50158893554304</v>
       </c>
       <c r="C14">
-        <v>19.34679410586718</v>
+        <v>23.73458695483895</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.53685171197072</v>
+        <v>21.2861885979049</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>52.54073818471071</v>
       </c>
       <c r="G14">
-        <v>42.93624103252743</v>
+        <v>2.003301546285046</v>
       </c>
       <c r="H14">
-        <v>43.07440564819548</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.313019977924839</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,39 +1018,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.88661158117396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>27.38147104049105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.6429375043901</v>
+        <v>32.30431626900561</v>
       </c>
       <c r="C15">
-        <v>19.228409238569</v>
+        <v>23.5925399605661</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.44048446244135</v>
+        <v>21.1744585488027</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>52.24877922457218</v>
       </c>
       <c r="G15">
-        <v>42.67272181159527</v>
+        <v>2.004881630972237</v>
       </c>
       <c r="H15">
-        <v>42.82839718810247</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.308530333577755</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,39 +1065,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.73827099769451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>27.24170313404094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.63776262879091</v>
+        <v>31.16097160265759</v>
       </c>
       <c r="C16">
-        <v>18.54459079592169</v>
+        <v>22.76941626184261</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.9224642631897</v>
+        <v>20.52750547910963</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>50.57622451463506</v>
       </c>
       <c r="G16">
-        <v>41.1594532488442</v>
+        <v>2.013913817157995</v>
       </c>
       <c r="H16">
-        <v>41.4189957599879</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.285894667349942</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,39 +1112,45 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.88126333194175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>26.45288340776206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.01242953040122</v>
+        <v>30.44770952230476</v>
       </c>
       <c r="C17">
-        <v>18.1199154387063</v>
+        <v>22.2560346737889</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.62427858322999</v>
+        <v>20.12457986641787</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>49.55019219378811</v>
       </c>
       <c r="G17">
-        <v>40.22760901140664</v>
+        <v>2.019440989840582</v>
       </c>
       <c r="H17">
-        <v>40.55409511074905</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.274633206865639</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,39 +1159,45 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.34891106934181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>25.97944137928331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.6493885845591</v>
+        <v>30.03295710385261</v>
       </c>
       <c r="C18">
-        <v>17.87362024142918</v>
+        <v>21.95754609309456</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.45247189110933</v>
+        <v>19.89057918437367</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>48.95990002306895</v>
       </c>
       <c r="G18">
-        <v>39.69010076506637</v>
+        <v>2.022617409644391</v>
       </c>
       <c r="H18">
-        <v>40.05630917957782</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.269069107802406</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,39 +1206,45 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.04013075697311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>25.71085337835619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.5258756734825</v>
+        <v>29.89174255478778</v>
       </c>
       <c r="C19">
-        <v>17.78986802475135</v>
+        <v>21.85592260181684</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.39424367600258</v>
+        <v>19.81096219489493</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>48.759999978016</v>
       </c>
       <c r="G19">
-        <v>39.50782466048138</v>
+        <v>2.023692648495857</v>
       </c>
       <c r="H19">
-        <v>39.88769473377689</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.267337345975614</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,39 +1253,45 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.93512493416382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>25.62054291721584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.07934194906281</v>
+        <v>30.52410036491646</v>
       </c>
       <c r="C20">
-        <v>18.16533045390916</v>
+        <v>22.3110143447364</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.65605029156667</v>
+        <v>20.16770414642656</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>49.65942708110569</v>
       </c>
       <c r="G20">
-        <v>40.3269592113808</v>
+        <v>2.018852940461888</v>
       </c>
       <c r="H20">
-        <v>40.64619372771438</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.275736369208469</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,39 +1300,45 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.40584505383309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>26.02945213203726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.89991645815631</v>
+        <v>32.59596484635237</v>
       </c>
       <c r="C21">
-        <v>19.40347257731466</v>
+        <v>23.80254552763273</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.58300608910024</v>
+        <v>21.33964953448443</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>52.68075740264425</v>
       </c>
       <c r="G21">
-        <v>43.06256066149576</v>
+        <v>2.002543357107617</v>
       </c>
       <c r="H21">
-        <v>43.19238948620935</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.315229556100424</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,39 +1347,45 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.95762868682319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>27.44871365249553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.06367504732539</v>
+        <v>33.91320259739308</v>
       </c>
       <c r="C22">
-        <v>20.1975435165345</v>
+        <v>24.75127177169449</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.23078888898492</v>
+        <v>22.08627997430671</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>54.65792355169605</v>
       </c>
       <c r="G22">
-        <v>44.84259482337225</v>
+        <v>1.991806363988406</v>
       </c>
       <c r="H22">
-        <v>44.85878033263231</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.350307149557934</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,39 +1394,45 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.95235447998261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>28.50263821847038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.444734888999</v>
+        <v>33.2133677776182</v>
       </c>
       <c r="C23">
-        <v>19.7749564114115</v>
+        <v>24.2471742344437</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.88578593407211</v>
+        <v>21.68951122536916</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>53.60220574280488</v>
       </c>
       <c r="G23">
-        <v>43.89294391800346</v>
+        <v>1.99754688998047</v>
       </c>
       <c r="H23">
-        <v>43.96888874475658</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.330679086480233</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,39 +1441,45 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.42303898724819</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>27.89459194430649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.04910187571979</v>
+        <v>30.48957870289692</v>
       </c>
       <c r="C24">
-        <v>18.14480503331603</v>
+        <v>22.28616846049984</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.64168748994249</v>
+        <v>20.14821499634117</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>49.61004330983441</v>
       </c>
       <c r="G24">
-        <v>40.28204858392075</v>
+        <v>2.019118800840243</v>
       </c>
       <c r="H24">
-        <v>40.6045576849476</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.275234806350281</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,39 +1488,45 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.38011372065941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>26.00683108658251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.33479935158158</v>
+        <v>27.37799896543937</v>
       </c>
       <c r="C25">
-        <v>16.3075576307787</v>
+        <v>20.04734056790189</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.38119923922422</v>
+        <v>18.39971993629184</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>45.29804923539108</v>
       </c>
       <c r="G25">
-        <v>36.32690563543986</v>
+        <v>2.042307456484645</v>
       </c>
       <c r="H25">
-        <v>36.96236546143092</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.249819160489017</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.07626059999117</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>24.11218006313776</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.92292306368267</v>
+        <v>12.53848880018298</v>
       </c>
       <c r="C2">
-        <v>18.28151295676616</v>
+        <v>6.415982704841758</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.03694363130786</v>
+        <v>7.180662450040173</v>
       </c>
       <c r="F2">
-        <v>42.10890596924213</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.059548200784494</v>
+        <v>33.92806812061744</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.02311532019828</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>19.7384578562061</v>
       </c>
       <c r="J2">
-        <v>5.25540863320255</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.59054854645529</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.464558313145277</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.651139464181094</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.82817926409921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.15050763693587</v>
+        <v>11.70786131002446</v>
       </c>
       <c r="C3">
-        <v>17.00689423156183</v>
+        <v>6.201336553058387</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.06704536486438</v>
+        <v>7.177062561844835</v>
       </c>
       <c r="F3">
-        <v>39.93961564687322</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.071433402465247</v>
+        <v>33.89107284004796</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.12561522264318</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>19.93072289893906</v>
       </c>
       <c r="J3">
-        <v>5.27204278594996</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.946377856235632</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.390669944996352</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.358760017191248</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.02360470487367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.00685337222373</v>
+        <v>11.21145615478825</v>
       </c>
       <c r="C4">
-        <v>16.18449730761368</v>
+        <v>6.065708219822127</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.44935758907382</v>
+        <v>7.177768717264707</v>
       </c>
       <c r="F4">
-        <v>38.60554644050715</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.078857483757949</v>
+        <v>33.90314535506876</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.19572860030519</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>20.06192090849718</v>
       </c>
       <c r="J4">
-        <v>5.287904340355892</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.529820394061113</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.347914780642911</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.178838398134159</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.5609652616831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.52663151226141</v>
+        <v>11.00366402154363</v>
       </c>
       <c r="C5">
-        <v>15.8391800133086</v>
+        <v>6.009503573068136</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.19223137597122</v>
+        <v>7.178776423810099</v>
       </c>
       <c r="F5">
-        <v>38.06180274379332</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.081918315399554</v>
+        <v>33.91642470870934</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.22603956261069</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>20.11855965745177</v>
       </c>
       <c r="J5">
-        <v>5.295693403652009</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.354792579621355</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.331151102386574</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.105517904841557</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.38018265773184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.44602812607465</v>
+        <v>10.96883177072838</v>
       </c>
       <c r="C6">
-        <v>15.78122021230587</v>
+        <v>6.000115312846565</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.14921457691642</v>
+        <v>7.178986840616622</v>
       </c>
       <c r="F6">
-        <v>37.9715236913867</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.082428806067792</v>
+        <v>33.91912325008784</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.23117587142081</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>20.12815253195231</v>
       </c>
       <c r="J6">
-        <v>5.297064170007105</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.32541119438447</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.328407380407867</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.093346058785809</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.35062729451465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.00043463354228</v>
+        <v>11.20867591053523</v>
       </c>
       <c r="C7">
-        <v>16.17988170232316</v>
+        <v>6.064953967861022</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.44591156150488</v>
+        <v>7.177779410340531</v>
       </c>
       <c r="F7">
-        <v>38.5982130578514</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.078898615055782</v>
+        <v>33.9032911113945</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.1961304265703</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>20.06267207237282</v>
       </c>
       <c r="J7">
-        <v>5.288004140705992</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.527481250877331</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.347686027568749</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.177849440332345</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.55849599537299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.32313466241875</v>
+        <v>12.24934385415835</v>
       </c>
       <c r="C8">
-        <v>17.85016565947035</v>
+        <v>6.342784632420778</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.70720286157913</v>
+        <v>7.178807830136595</v>
       </c>
       <c r="F8">
-        <v>41.36159046888723</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.063622261841427</v>
+        <v>33.90785962408104</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.05692664189729</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>19.80194064686109</v>
       </c>
       <c r="J8">
-        <v>5.259912603762954</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.37280764815008</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.438541148972503</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.55046762013834</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.54416726274743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.45071397361317</v>
+        <v>14.22052659672642</v>
       </c>
       <c r="C9">
-        <v>20.81904936323938</v>
+        <v>6.85616228085903</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.00039834988623</v>
+        <v>7.204565769428639</v>
       </c>
       <c r="F9">
-        <v>46.75250183216735</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.034484619600261</v>
+        <v>34.20994437763092</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.84407178434522</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>19.40130238117287</v>
       </c>
       <c r="J9">
-        <v>5.254275246316728</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.86365372339299</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.637289537183441</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.27398994564201</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.73257050787316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.24175991136971</v>
+        <v>15.5260200423846</v>
       </c>
       <c r="C10">
-        <v>22.82757016673301</v>
+        <v>7.21318310095916</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.57317930670338</v>
+        <v>7.238787172840833</v>
       </c>
       <c r="F10">
-        <v>50.69329262316343</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.013282597782368</v>
+        <v>34.6334432424931</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.72905145034232</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.18386561423551</v>
       </c>
       <c r="J10">
-        <v>5.28730708107</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.8580543844035</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.795624862623677</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.79639367367039</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.50741962182075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.46391297995872</v>
+        <v>16.08973067813018</v>
       </c>
       <c r="C11">
-        <v>23.70745761801821</v>
+        <v>7.371119337854733</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.26484794348702</v>
+        <v>7.257853908094872</v>
       </c>
       <c r="F11">
-        <v>52.48490314195724</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.003603813303537</v>
+        <v>34.87457017213661</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.68683812060249</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.10392188902487</v>
       </c>
       <c r="J11">
-        <v>5.312149062793337</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.28884668942172</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.870273913179553</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.03122189843071</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.35469510327476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.92034879773859</v>
+        <v>16.29892328924592</v>
       </c>
       <c r="C12">
-        <v>24.03614345666138</v>
+        <v>7.430279727125093</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.5234425101627</v>
+        <v>7.265591659695005</v>
       </c>
       <c r="F12">
-        <v>53.16371436077564</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.999926105194513</v>
+        <v>34.97321869931325</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.67240888778534</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.07658230698941</v>
       </c>
       <c r="J12">
-        <v>5.32313072146472</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.44890993213488</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.898913598882219</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.11968280552498</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.68168908155547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.82232223671129</v>
+        <v>16.25405886254415</v>
       </c>
       <c r="C13">
-        <v>23.96554943056971</v>
+        <v>7.417567237034413</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.46789539688859</v>
+        <v>7.263901945306095</v>
       </c>
       <c r="F13">
-        <v>53.01749311958288</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.000718859982581</v>
+        <v>34.9516408378709</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.67544557394817</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.0823364915428</v>
       </c>
       <c r="J13">
-        <v>5.320692811754397</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.41457333667181</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.892729076504237</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.10065261000633</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.61098365276182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.50158893554304</v>
+        <v>16.10702632088426</v>
       </c>
       <c r="C14">
-        <v>23.73458695483895</v>
+        <v>7.375999459217324</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.2861885979049</v>
+        <v>7.258480041182167</v>
       </c>
       <c r="F14">
-        <v>52.54073818471071</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.003301546285046</v>
+        <v>34.88253689598697</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.68561922329368</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.10161262923375</v>
       </c>
       <c r="J14">
-        <v>5.313019977924839</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.30207647716941</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.872622696081892</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.03850922040857</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.38147104049105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.30431626900561</v>
+        <v>16.01641023999084</v>
       </c>
       <c r="C15">
-        <v>23.5925399605661</v>
+        <v>7.350453772092366</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.1744585488027</v>
+        <v>7.255226804316292</v>
       </c>
       <c r="F15">
-        <v>52.24877922457218</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.004881630972237</v>
+        <v>34.84117520907481</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.6920566720889</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.11380816921481</v>
       </c>
       <c r="J15">
-        <v>5.308530333577755</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.23277036878446</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.860355217327087</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.00038266923705</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.24170313404094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.16097160265759</v>
+        <v>15.48857875188429</v>
       </c>
       <c r="C16">
-        <v>22.76941626184261</v>
+        <v>7.202771172734882</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.52750547910963</v>
+        <v>7.237612758848716</v>
       </c>
       <c r="F16">
-        <v>50.57622451463506</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.013913817157995</v>
+        <v>34.6186922428292</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.73202221205607</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.18948909938141</v>
       </c>
       <c r="J16">
-        <v>5.285894667349942</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.82946979508574</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.790798663549215</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.78098521700793</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.45288340776206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.44770952230476</v>
+        <v>15.15709089206245</v>
       </c>
       <c r="C17">
-        <v>22.2560346737889</v>
+        <v>7.111022837264438</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.12457986641787</v>
+        <v>7.227713561331499</v>
       </c>
       <c r="F17">
-        <v>49.55019219378811</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.019440989840582</v>
+        <v>34.49488778084533</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.75919976526738</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>19.24091737295763</v>
       </c>
       <c r="J17">
-        <v>5.274633206865639</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.57655583196186</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.748795534956637</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.64562615725884</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.97944137928331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.03295710385261</v>
+        <v>14.96358451830494</v>
       </c>
       <c r="C18">
-        <v>21.95754609309456</v>
+        <v>7.057830358372909</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.89057918437367</v>
+        <v>7.222348303296449</v>
       </c>
       <c r="F18">
-        <v>48.95990002306895</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.022617409644391</v>
+        <v>34.42822018501624</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.77577664486423</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>19.27226990650322</v>
       </c>
       <c r="J18">
-        <v>5.269069107802406</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.42905421514173</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.72488349652488</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.5675090724199</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.71085337835619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.89174255478778</v>
+        <v>14.89757629602202</v>
       </c>
       <c r="C19">
-        <v>21.85592260181684</v>
+        <v>7.039748125762435</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.81096219489493</v>
+        <v>7.220587702317019</v>
       </c>
       <c r="F19">
-        <v>48.759999978016</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.023692648495857</v>
+        <v>34.40641625631536</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.78154860507001</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>19.28318369736903</v>
       </c>
       <c r="J19">
-        <v>5.267337345975614</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.37876277367504</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.716829889352019</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.54101688518561</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.62054291721584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.52410036491646</v>
+        <v>15.19267214951723</v>
       </c>
       <c r="C20">
-        <v>22.3110143447364</v>
+        <v>7.120833242370403</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.16770414642656</v>
+        <v>7.228733245567728</v>
       </c>
       <c r="F20">
-        <v>49.65942708110569</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.018852940461888</v>
+        <v>34.50759424624309</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.75620813856225</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>19.23525786819571</v>
       </c>
       <c r="J20">
-        <v>5.275736369208469</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.60368906178711</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.753241310491538</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.66006294393587</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.02945213203726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.59596484635237</v>
+        <v>16.15032875914185</v>
       </c>
       <c r="C21">
-        <v>23.80254552763273</v>
+        <v>7.388226474002176</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.33964953448443</v>
+        <v>7.26005842296429</v>
       </c>
       <c r="F21">
-        <v>52.68075740264425</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.002543357107617</v>
+        <v>34.90263234700451</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.68258789619805</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.0958694424303</v>
       </c>
       <c r="J21">
-        <v>5.315229556100424</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.33520251930042</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.878518378730231</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.05677523785026</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.44871365249553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.91320259739308</v>
+        <v>16.75134242607676</v>
       </c>
       <c r="C22">
-        <v>24.75127177169449</v>
+        <v>7.559216316691632</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.08627997430671</v>
+        <v>7.283554975953798</v>
       </c>
       <c r="F22">
-        <v>54.65792355169605</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>1.991806363988406</v>
+        <v>35.20375193478394</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.64359504427612</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>19.02197428900498</v>
       </c>
       <c r="J22">
-        <v>5.350307149557934</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.79542281724183</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.962558788052697</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.31332785509914</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.50263821847038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.2133677776182</v>
+        <v>16.43282343509929</v>
       </c>
       <c r="C23">
-        <v>24.2471742344437</v>
+        <v>7.468300298396493</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.68951122536916</v>
+        <v>7.270732947453028</v>
       </c>
       <c r="F23">
-        <v>53.60220574280488</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>1.99754688998047</v>
+        <v>35.03899131408811</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.66353598185983</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.05976789222</v>
       </c>
       <c r="J23">
-        <v>5.330679086480233</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.55141702566248</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.917508369966738</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.17666683927704</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.89459194430649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.48957870289692</v>
+        <v>15.17659499293972</v>
       </c>
       <c r="C24">
-        <v>22.28616846049984</v>
+        <v>7.116399344422455</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.14821499634117</v>
+        <v>7.228271232236838</v>
       </c>
       <c r="F24">
-        <v>49.61004330983441</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.019118800840243</v>
+        <v>34.50183563601738</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.7575576949387</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>19.23781098353138</v>
       </c>
       <c r="J24">
-        <v>5.275234806350281</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.59142866581928</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.751230639503684</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.65353699433258</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.00683108658251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.37799896543937</v>
+        <v>13.71259847685537</v>
       </c>
       <c r="C25">
-        <v>20.04734056790189</v>
+        <v>6.720767539587317</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.39971993629184</v>
+        <v>7.194970710963801</v>
       </c>
       <c r="F25">
-        <v>45.29804923539108</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.042307456484645</v>
+        <v>34.0944493102902</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.89475237634681</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>19.49690588656936</v>
       </c>
       <c r="J25">
-        <v>5.249819160489017</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.47815133224105</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.581341235610926</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.07955377832459</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.11218006313776</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.53848880018298</v>
+        <v>12.36652176781263</v>
       </c>
       <c r="C2">
-        <v>6.415982704841758</v>
+        <v>6.710362301308201</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.180662450040173</v>
+        <v>11.74266040059292</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>33.92806812061744</v>
+        <v>44.99892709505789</v>
       </c>
       <c r="H2">
-        <v>12.02311532019828</v>
+        <v>18.45801825050868</v>
       </c>
       <c r="I2">
-        <v>19.7384578562061</v>
+        <v>29.30628798620206</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.59054854645529</v>
+        <v>10.08830146424279</v>
       </c>
       <c r="L2">
-        <v>6.464558313145277</v>
+        <v>10.31677121513143</v>
       </c>
       <c r="M2">
-        <v>9.651139464181094</v>
+        <v>14.3987000792445</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.70786131002446</v>
+        <v>12.18046356039775</v>
       </c>
       <c r="C3">
-        <v>6.201336553058387</v>
+        <v>6.63703623605658</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.177062561844835</v>
+        <v>11.76408651046654</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>33.89107284004796</v>
+        <v>45.13230950563796</v>
       </c>
       <c r="H3">
-        <v>12.12561522264318</v>
+        <v>18.51750605185546</v>
       </c>
       <c r="I3">
-        <v>19.93072289893906</v>
+        <v>29.41173216214271</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.946377856235632</v>
+        <v>9.959583861590385</v>
       </c>
       <c r="L3">
-        <v>6.390669944996352</v>
+        <v>10.32630042546873</v>
       </c>
       <c r="M3">
-        <v>9.358760017191248</v>
+        <v>14.37802520705135</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.21145615478825</v>
+        <v>12.06729538813024</v>
       </c>
       <c r="C4">
-        <v>6.065708219822127</v>
+        <v>6.590801366029492</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.177768717264707</v>
+        <v>11.77860313348295</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>33.90314535506876</v>
+        <v>45.22582510834144</v>
       </c>
       <c r="H4">
-        <v>12.19572860030519</v>
+        <v>18.55689640392668</v>
       </c>
       <c r="I4">
-        <v>20.06192090849718</v>
+        <v>29.48155766062121</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.529820394061113</v>
+        <v>9.881675433740639</v>
       </c>
       <c r="L4">
-        <v>6.347914780642911</v>
+        <v>10.33356965493217</v>
       </c>
       <c r="M4">
-        <v>9.178838398134159</v>
+        <v>14.36749306120887</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.00366402154363</v>
+        <v>12.02150646181504</v>
       </c>
       <c r="C5">
-        <v>6.009503573068136</v>
+        <v>6.571662680592414</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.178776423810099</v>
+        <v>11.78486134521437</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>33.91642470870934</v>
+        <v>45.26684364524506</v>
       </c>
       <c r="H5">
-        <v>12.22603956261069</v>
+        <v>18.57366833102252</v>
       </c>
       <c r="I5">
-        <v>20.11855965745177</v>
+        <v>29.51128892823386</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.354792579621355</v>
+        <v>9.850246678531182</v>
       </c>
       <c r="L5">
-        <v>6.331151102386574</v>
+        <v>10.33688896805814</v>
       </c>
       <c r="M5">
-        <v>9.105517904841557</v>
+        <v>14.36374849369082</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.96883177072838</v>
+        <v>12.01392475987686</v>
       </c>
       <c r="C6">
-        <v>6.000115312846565</v>
+        <v>6.56846695728732</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.178986840616622</v>
+        <v>11.78592121717912</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>33.91912325008784</v>
+        <v>45.27383016703286</v>
       </c>
       <c r="H6">
-        <v>12.23117587142081</v>
+        <v>18.57649677700219</v>
       </c>
       <c r="I6">
-        <v>20.12815253195231</v>
+        <v>29.51630286429825</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.32541119438447</v>
+        <v>9.845048322700718</v>
       </c>
       <c r="L6">
-        <v>6.328407380407867</v>
+        <v>10.33746171278329</v>
       </c>
       <c r="M6">
-        <v>9.093346058785809</v>
+        <v>14.36315987072918</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.20867591053523</v>
+        <v>12.06667645749996</v>
       </c>
       <c r="C7">
-        <v>6.064953967861022</v>
+        <v>6.590544450285933</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.177779410340531</v>
+        <v>11.77868614638965</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>33.9032911113945</v>
+        <v>45.22636653095607</v>
       </c>
       <c r="H7">
-        <v>12.1961304265703</v>
+        <v>18.55711968098711</v>
       </c>
       <c r="I7">
-        <v>20.06267207237282</v>
+        <v>29.48195345872662</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.527481250877331</v>
+        <v>9.881250232478207</v>
       </c>
       <c r="L7">
-        <v>6.347686027568749</v>
+        <v>10.33361297419806</v>
       </c>
       <c r="M7">
-        <v>9.177849440332345</v>
+        <v>14.36744033982882</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.24934385415835</v>
+        <v>12.3021813797321</v>
       </c>
       <c r="C8">
-        <v>6.342784632420778</v>
+        <v>6.685335400644325</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.178807830136595</v>
+        <v>11.74976588683975</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>33.90785962408104</v>
+        <v>45.04249932470844</v>
       </c>
       <c r="H8">
-        <v>12.05692664189729</v>
+        <v>18.47793492392567</v>
       </c>
       <c r="I8">
-        <v>19.80194064686109</v>
+        <v>29.34158958388959</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.37280764815008</v>
+        <v>10.04370837791688</v>
       </c>
       <c r="L8">
-        <v>6.438541148972503</v>
+        <v>10.31976279145692</v>
       </c>
       <c r="M8">
-        <v>9.55046762013834</v>
+        <v>14.39112486973961</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.22052659672642</v>
+        <v>12.76995486086559</v>
       </c>
       <c r="C9">
-        <v>6.85616228085903</v>
+        <v>6.861292757831203</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.204565769428639</v>
+        <v>11.70383550535475</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>34.20994437763092</v>
+        <v>44.774606168392</v>
       </c>
       <c r="H9">
-        <v>11.84407178434522</v>
+        <v>18.34539600779572</v>
       </c>
       <c r="I9">
-        <v>19.40130238117287</v>
+        <v>29.10671554591397</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.86365372339299</v>
+        <v>10.36958212796989</v>
       </c>
       <c r="L9">
-        <v>6.637289537183441</v>
+        <v>10.30383619807299</v>
       </c>
       <c r="M9">
-        <v>10.27398994564201</v>
+        <v>14.45455519761272</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.5260200423846</v>
+        <v>13.11386782526055</v>
       </c>
       <c r="C10">
-        <v>7.21318310095916</v>
+        <v>6.984121051799814</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.238787172840833</v>
+        <v>11.67664166546587</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>34.6334432424931</v>
+        <v>44.63490641835987</v>
       </c>
       <c r="H10">
-        <v>11.72905145034232</v>
+        <v>18.26190133287403</v>
       </c>
       <c r="I10">
-        <v>19.18386561423551</v>
+        <v>28.95884203137886</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.8580543844035</v>
+        <v>10.61126197182876</v>
       </c>
       <c r="L10">
-        <v>6.795624862623677</v>
+        <v>10.29895441166589</v>
       </c>
       <c r="M10">
-        <v>10.79639367367039</v>
+        <v>14.51126400120465</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.08973067813018</v>
+        <v>13.26967883072583</v>
       </c>
       <c r="C11">
-        <v>7.371119337854733</v>
+        <v>7.038519045303564</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.257853908094872</v>
+        <v>11.66568811395777</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>34.87457017213661</v>
+        <v>44.58387769114042</v>
       </c>
       <c r="H11">
-        <v>11.68683812060249</v>
+        <v>18.22693564604424</v>
       </c>
       <c r="I11">
-        <v>19.10392188902487</v>
+        <v>28.8969472792312</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.28884668942172</v>
+        <v>10.72124104691027</v>
       </c>
       <c r="L11">
-        <v>6.870273913179553</v>
+        <v>10.29820686992018</v>
       </c>
       <c r="M11">
-        <v>11.03122189843071</v>
+        <v>14.53919755484465</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.29892328924592</v>
+        <v>13.32853297119597</v>
       </c>
       <c r="C12">
-        <v>7.430279727125093</v>
+        <v>7.058899227859026</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.265591659695005</v>
+        <v>11.66174363399106</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>34.97321869931325</v>
+        <v>44.56636374371083</v>
       </c>
       <c r="H12">
-        <v>11.67240888778534</v>
+        <v>18.21412920711033</v>
       </c>
       <c r="I12">
-        <v>19.07658230698941</v>
+        <v>28.87428350813267</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.44890993213488</v>
+        <v>10.76285524924858</v>
       </c>
       <c r="L12">
-        <v>6.898913598882219</v>
+        <v>10.2981348662045</v>
       </c>
       <c r="M12">
-        <v>11.11968280552498</v>
+        <v>14.55007692541036</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.25405886254415</v>
+        <v>13.31586514422911</v>
       </c>
       <c r="C13">
-        <v>7.417567237034413</v>
+        <v>7.054519842660191</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.263901945306095</v>
+        <v>11.6625841086359</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>34.9516408378709</v>
+        <v>44.57005507223386</v>
       </c>
       <c r="H13">
-        <v>11.67544557394817</v>
+        <v>18.21686797820021</v>
       </c>
       <c r="I13">
-        <v>19.0823364915428</v>
+        <v>28.879130086609</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.41457333667181</v>
+        <v>10.75389492443806</v>
       </c>
       <c r="L13">
-        <v>6.892729076504237</v>
+        <v>10.29814099900733</v>
       </c>
       <c r="M13">
-        <v>11.10065261000633</v>
+        <v>14.54772054079969</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.10702632088426</v>
+        <v>13.27452408104784</v>
       </c>
       <c r="C14">
-        <v>7.375999459217324</v>
+        <v>7.040200165148254</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.258480041182167</v>
+        <v>11.66535952516938</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>34.88253689598697</v>
+        <v>44.58240049404401</v>
       </c>
       <c r="H14">
-        <v>11.68561922329368</v>
+        <v>18.22587334529862</v>
       </c>
       <c r="I14">
-        <v>19.10161262923375</v>
+        <v>28.89506718665683</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.30207647716941</v>
+        <v>10.72466553720569</v>
       </c>
       <c r="L14">
-        <v>6.872622696081892</v>
+        <v>10.2981967205795</v>
       </c>
       <c r="M14">
-        <v>11.03850922040857</v>
+        <v>14.54008659747754</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.01641023999084</v>
+        <v>13.24918055548512</v>
       </c>
       <c r="C15">
-        <v>7.350453772092366</v>
+        <v>7.031400212674975</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.255226804316292</v>
+        <v>11.66708602404692</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>34.84117520907481</v>
+        <v>44.59019832743512</v>
       </c>
       <c r="H15">
-        <v>11.6920566720889</v>
+        <v>18.2314459685924</v>
       </c>
       <c r="I15">
-        <v>19.11380816921481</v>
+        <v>28.90493002474884</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.23277036878446</v>
+        <v>10.70675635391301</v>
       </c>
       <c r="L15">
-        <v>6.860355217327087</v>
+        <v>10.29825831554303</v>
       </c>
       <c r="M15">
-        <v>11.00038266923705</v>
+        <v>14.5354496825817</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.48857875188429</v>
+        <v>13.10366751702623</v>
       </c>
       <c r="C16">
-        <v>7.202771172734882</v>
+        <v>6.980535708485509</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.237612758848716</v>
+        <v>11.67738598868928</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>34.6186922428292</v>
+        <v>44.6384940121101</v>
       </c>
       <c r="H16">
-        <v>11.73202221205607</v>
+        <v>18.26424716808432</v>
       </c>
       <c r="I16">
-        <v>19.18948909938141</v>
+        <v>28.96299527601665</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.82946979508574</v>
+        <v>10.60407207781148</v>
       </c>
       <c r="L16">
-        <v>6.790798663549215</v>
+        <v>10.29903284577875</v>
       </c>
       <c r="M16">
-        <v>10.78098521700793</v>
+        <v>14.50948098995036</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.15709089206245</v>
+        <v>13.01419603261933</v>
       </c>
       <c r="C17">
-        <v>7.111022837264438</v>
+        <v>6.948948765460456</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.227713561331499</v>
+        <v>11.68406736253517</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>34.49488778084533</v>
+        <v>44.67133550283195</v>
       </c>
       <c r="H17">
-        <v>11.75919976526738</v>
+        <v>18.28514261548449</v>
       </c>
       <c r="I17">
-        <v>19.24091737295763</v>
+        <v>28.99999395711596</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.57655583196186</v>
+        <v>10.54106100028162</v>
       </c>
       <c r="L17">
-        <v>6.748795534956637</v>
+        <v>10.29988479407011</v>
       </c>
       <c r="M17">
-        <v>10.64562615725884</v>
+        <v>14.49409328774633</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.96358451830494</v>
+        <v>12.96267773200013</v>
       </c>
       <c r="C18">
-        <v>7.057830358372909</v>
+        <v>6.93064213706554</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.222348303296449</v>
+        <v>11.68804371650597</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>34.42822018501624</v>
+        <v>44.6914031442357</v>
       </c>
       <c r="H18">
-        <v>11.77577664486423</v>
+        <v>18.29744501471772</v>
       </c>
       <c r="I18">
-        <v>19.27226990650322</v>
+        <v>29.02178031076386</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.42905421514173</v>
+        <v>10.50482445982393</v>
       </c>
       <c r="L18">
-        <v>6.72488349652488</v>
+        <v>10.30051352838695</v>
       </c>
       <c r="M18">
-        <v>10.5675090724199</v>
+        <v>14.48544413893546</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.89757629602202</v>
+        <v>12.9452265435869</v>
       </c>
       <c r="C19">
-        <v>7.039748125762435</v>
+        <v>6.924420222347138</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.220587702317019</v>
+        <v>11.68941296525843</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>34.40641625631536</v>
+        <v>44.69839975417989</v>
       </c>
       <c r="H19">
-        <v>11.78154860507001</v>
+        <v>18.30165913768493</v>
       </c>
       <c r="I19">
-        <v>19.28318369736903</v>
+        <v>29.02924359694616</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.37876277367504</v>
+        <v>10.49255754988925</v>
       </c>
       <c r="L19">
-        <v>6.716829889352019</v>
+        <v>10.30075025392071</v>
       </c>
       <c r="M19">
-        <v>10.54101688518561</v>
+        <v>14.48255045308556</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.19267214951723</v>
+        <v>13.02372670600361</v>
       </c>
       <c r="C20">
-        <v>7.120833242370403</v>
+        <v>6.952325649214219</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.228733245567728</v>
+        <v>11.68334231472217</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>34.50759424624309</v>
+        <v>44.66771747528328</v>
       </c>
       <c r="H20">
-        <v>11.75620813856225</v>
+        <v>18.28288887387768</v>
       </c>
       <c r="I20">
-        <v>19.23525786819571</v>
+        <v>28.99600303490412</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.60368906178711</v>
+        <v>10.54776831795614</v>
       </c>
       <c r="L20">
-        <v>6.753241310491538</v>
+        <v>10.29977975146157</v>
       </c>
       <c r="M20">
-        <v>10.66006294393587</v>
+        <v>14.49571052570331</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.15032875914185</v>
+        <v>13.28667141331724</v>
       </c>
       <c r="C21">
-        <v>7.388226474002176</v>
+        <v>7.044412201895647</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.26005842296429</v>
+        <v>11.66453880116153</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>34.90263234700451</v>
+        <v>44.57872516690086</v>
       </c>
       <c r="H21">
-        <v>11.68258789619805</v>
+        <v>18.22321645933983</v>
       </c>
       <c r="I21">
-        <v>19.0958694424303</v>
+        <v>28.89036504266634</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.33520251930042</v>
+        <v>10.73325209582425</v>
       </c>
       <c r="L21">
-        <v>6.878518378730231</v>
+        <v>10.29817463183673</v>
       </c>
       <c r="M21">
-        <v>11.05677523785026</v>
+        <v>14.54232073469646</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.75134242607676</v>
+        <v>13.45763298981475</v>
       </c>
       <c r="C22">
-        <v>7.559216316691632</v>
+        <v>7.103315719226851</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.283554975953798</v>
+        <v>11.65343495521162</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>35.20375193478394</v>
+        <v>44.53111443597626</v>
       </c>
       <c r="H22">
-        <v>11.64359504427612</v>
+        <v>18.18674882036906</v>
       </c>
       <c r="I22">
-        <v>19.02197428900498</v>
+        <v>28.82583926529598</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.79542281724183</v>
+        <v>10.85427023584828</v>
       </c>
       <c r="L22">
-        <v>6.962558788052697</v>
+        <v>10.29835548321108</v>
       </c>
       <c r="M22">
-        <v>11.31332785509914</v>
+        <v>14.57453796462816</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.43282343509929</v>
+        <v>13.36648696386902</v>
       </c>
       <c r="C23">
-        <v>7.468300298396493</v>
+        <v>7.071997120082746</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.270732947453028</v>
+        <v>11.65925295830886</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>35.03899131408811</v>
+        <v>44.55555701589132</v>
       </c>
       <c r="H23">
-        <v>11.66353598185983</v>
+        <v>18.20598045100356</v>
       </c>
       <c r="I23">
-        <v>19.05976789222</v>
+        <v>28.8598642212712</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.55141702566248</v>
+        <v>10.78971171636097</v>
       </c>
       <c r="L23">
-        <v>6.917508369966738</v>
+        <v>10.29814669893381</v>
       </c>
       <c r="M23">
-        <v>11.17666683927704</v>
+        <v>14.55718441389292</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.17659499293972</v>
+        <v>13.01941813326471</v>
       </c>
       <c r="C24">
-        <v>7.116399344422455</v>
+        <v>6.95079941707248</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.228271232236838</v>
+        <v>11.68366968786009</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>34.50183563601738</v>
+        <v>44.6693494898764</v>
       </c>
       <c r="H24">
-        <v>11.7575576949387</v>
+        <v>18.28390688922769</v>
       </c>
       <c r="I24">
-        <v>19.23781098353138</v>
+        <v>28.99780572573282</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.59142866581928</v>
+        <v>10.54473596984442</v>
       </c>
       <c r="L24">
-        <v>6.751230639503684</v>
+        <v>10.29982680839089</v>
       </c>
       <c r="M24">
-        <v>10.65353699433258</v>
+        <v>14.49497875696668</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.71259847685537</v>
+        <v>12.64312633273737</v>
       </c>
       <c r="C25">
-        <v>6.720767539587317</v>
+        <v>6.814796021334754</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.194970710963801</v>
+        <v>11.71510878719103</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>34.0944493102902</v>
+        <v>44.83709007253414</v>
       </c>
       <c r="H25">
-        <v>11.89475237634681</v>
+        <v>18.37881481547063</v>
       </c>
       <c r="I25">
-        <v>19.49690588656936</v>
+        <v>29.16592492885124</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.47815133224105</v>
+        <v>10.28087027872123</v>
       </c>
       <c r="L25">
-        <v>6.581341235610926</v>
+        <v>10.30694482547639</v>
       </c>
       <c r="M25">
-        <v>10.07955377832459</v>
+        <v>14.43560156337159</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.36652176781263</v>
+        <v>12.538488800183</v>
       </c>
       <c r="C2">
-        <v>6.710362301308201</v>
+        <v>6.41598270484174</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.74266040059292</v>
+        <v>7.180662450040126</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>44.99892709505789</v>
+        <v>33.92806812061751</v>
       </c>
       <c r="H2">
-        <v>18.45801825050868</v>
+        <v>12.02311532019831</v>
       </c>
       <c r="I2">
-        <v>29.30628798620206</v>
+        <v>19.73845785620613</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.08830146424279</v>
+        <v>10.59054854645528</v>
       </c>
       <c r="L2">
-        <v>10.31677121513143</v>
+        <v>6.464558313145257</v>
       </c>
       <c r="M2">
-        <v>14.3987000792445</v>
+        <v>9.651139464181082</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.18046356039775</v>
+        <v>11.70786131002444</v>
       </c>
       <c r="C3">
-        <v>6.63703623605658</v>
+        <v>6.201336553058507</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.76408651046654</v>
+        <v>7.177062561844901</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>45.13230950563796</v>
+        <v>33.89107284004802</v>
       </c>
       <c r="H3">
-        <v>18.51750605185546</v>
+        <v>12.12561522264318</v>
       </c>
       <c r="I3">
-        <v>29.41173216214271</v>
+        <v>19.9307228989391</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.959583861590385</v>
+        <v>9.946377856235669</v>
       </c>
       <c r="L3">
-        <v>10.32630042546873</v>
+        <v>6.390669944996379</v>
       </c>
       <c r="M3">
-        <v>14.37802520705135</v>
+        <v>9.358760017191251</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.06729538813024</v>
+        <v>11.21145615478824</v>
       </c>
       <c r="C4">
-        <v>6.590801366029492</v>
+        <v>6.065708219822241</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.77860313348295</v>
+        <v>7.177768717264657</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>45.22582510834144</v>
+        <v>33.90314535506896</v>
       </c>
       <c r="H4">
-        <v>18.55689640392668</v>
+        <v>12.1957286003052</v>
       </c>
       <c r="I4">
-        <v>29.48155766062121</v>
+        <v>20.0619209084973</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.881675433740639</v>
+        <v>9.529820394061073</v>
       </c>
       <c r="L4">
-        <v>10.33356965493217</v>
+        <v>6.347914780642866</v>
       </c>
       <c r="M4">
-        <v>14.36749306120887</v>
+        <v>9.178838398134179</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.02150646181504</v>
+        <v>11.00366402154361</v>
       </c>
       <c r="C5">
-        <v>6.571662680592414</v>
+        <v>6.009503573068004</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.78486134521437</v>
+        <v>7.178776423810105</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>45.26684364524506</v>
+        <v>33.91642470870917</v>
       </c>
       <c r="H5">
-        <v>18.57366833102252</v>
+        <v>12.22603956261061</v>
       </c>
       <c r="I5">
-        <v>29.51128892823386</v>
+        <v>20.11855965745161</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.850246678531182</v>
+        <v>9.354792579621382</v>
       </c>
       <c r="L5">
-        <v>10.33688896805814</v>
+        <v>6.331151102386554</v>
       </c>
       <c r="M5">
-        <v>14.36374849369082</v>
+        <v>9.10551790484152</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.01392475987686</v>
+        <v>10.96883177072839</v>
       </c>
       <c r="C6">
-        <v>6.56846695728732</v>
+        <v>6.00011531284644</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.78592121717912</v>
+        <v>7.178986840616622</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>45.27383016703286</v>
+        <v>33.91912325008776</v>
       </c>
       <c r="H6">
-        <v>18.57649677700219</v>
+        <v>12.23117587142081</v>
       </c>
       <c r="I6">
-        <v>29.51630286429825</v>
+        <v>20.12815253195226</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.845048322700718</v>
+        <v>9.325411194384484</v>
       </c>
       <c r="L6">
-        <v>10.33746171278329</v>
+        <v>6.328407380407917</v>
       </c>
       <c r="M6">
-        <v>14.36315987072918</v>
+        <v>9.093346058785814</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.06667645749996</v>
+        <v>11.20867591053525</v>
       </c>
       <c r="C7">
-        <v>6.590544450285933</v>
+        <v>6.0649539678609</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.77868614638965</v>
+        <v>7.177779410340536</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>45.22636653095607</v>
+        <v>33.90329111139542</v>
       </c>
       <c r="H7">
-        <v>18.55711968098711</v>
+        <v>12.19613042657056</v>
       </c>
       <c r="I7">
-        <v>29.48195345872662</v>
+        <v>20.06267207237323</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.881250232478207</v>
+        <v>9.527481250877212</v>
       </c>
       <c r="L7">
-        <v>10.33361297419806</v>
+        <v>6.347686027568719</v>
       </c>
       <c r="M7">
-        <v>14.36744033982882</v>
+        <v>9.177849440332409</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.3021813797321</v>
+        <v>12.24934385415839</v>
       </c>
       <c r="C8">
-        <v>6.685335400644325</v>
+        <v>6.342784632420768</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.74976588683975</v>
+        <v>7.178807830136613</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>45.04249932470844</v>
+        <v>33.90785962408063</v>
       </c>
       <c r="H8">
-        <v>18.47793492392567</v>
+        <v>12.05692664189724</v>
       </c>
       <c r="I8">
-        <v>29.34158958388959</v>
+        <v>19.80194064686092</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.04370837791688</v>
+        <v>10.37280764815016</v>
       </c>
       <c r="L8">
-        <v>10.31976279145692</v>
+        <v>6.438541148972486</v>
       </c>
       <c r="M8">
-        <v>14.39112486973961</v>
+        <v>9.550467620138315</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.76995486086559</v>
+        <v>14.22052659672644</v>
       </c>
       <c r="C9">
-        <v>6.861292757831203</v>
+        <v>6.856162280859039</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.70383550535475</v>
+        <v>7.204565769428636</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>44.774606168392</v>
+        <v>34.20994437763103</v>
       </c>
       <c r="H9">
-        <v>18.34539600779572</v>
+        <v>11.84407178434531</v>
       </c>
       <c r="I9">
-        <v>29.10671554591397</v>
+        <v>19.40130238117294</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.36958212796989</v>
+        <v>11.86365372339303</v>
       </c>
       <c r="L9">
-        <v>10.30383619807299</v>
+        <v>6.637289537183463</v>
       </c>
       <c r="M9">
-        <v>14.45455519761272</v>
+        <v>10.27398994564198</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.11386782526055</v>
+        <v>15.52602004238458</v>
       </c>
       <c r="C10">
-        <v>6.984121051799814</v>
+        <v>7.213183100959027</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.67664166546587</v>
+        <v>7.238787172840891</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>44.63490641835987</v>
+        <v>34.63344324249324</v>
       </c>
       <c r="H10">
-        <v>18.26190133287403</v>
+        <v>11.72905145034243</v>
       </c>
       <c r="I10">
-        <v>28.95884203137886</v>
+        <v>19.18386561423561</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.61126197182876</v>
+        <v>12.85805438440349</v>
       </c>
       <c r="L10">
-        <v>10.29895441166589</v>
+        <v>6.795624862623692</v>
       </c>
       <c r="M10">
-        <v>14.51126400120465</v>
+        <v>10.79639367367039</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.26967883072583</v>
+        <v>16.08973067813023</v>
       </c>
       <c r="C11">
-        <v>7.038519045303564</v>
+        <v>7.371119337854497</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.66568811395777</v>
+        <v>7.257853908094937</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>44.58387769114042</v>
+        <v>34.87457017213663</v>
       </c>
       <c r="H11">
-        <v>18.22693564604424</v>
+        <v>11.68683812060248</v>
       </c>
       <c r="I11">
-        <v>28.8969472792312</v>
+        <v>19.10392188902486</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.72124104691027</v>
+        <v>13.28884668942171</v>
       </c>
       <c r="L11">
-        <v>10.29820686992018</v>
+        <v>6.870273913179588</v>
       </c>
       <c r="M11">
-        <v>14.53919755484465</v>
+        <v>11.03122189843073</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.32853297119597</v>
+        <v>16.29892328924599</v>
       </c>
       <c r="C12">
-        <v>7.058899227859026</v>
+        <v>7.430279727124987</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.66174363399106</v>
+        <v>7.265591659694954</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>44.56636374371083</v>
+        <v>34.97321869931312</v>
       </c>
       <c r="H12">
-        <v>18.21412920711033</v>
+        <v>11.67240888778526</v>
       </c>
       <c r="I12">
-        <v>28.87428350813267</v>
+        <v>19.07658230698924</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.76285524924858</v>
+        <v>13.4489099321349</v>
       </c>
       <c r="L12">
-        <v>10.2981348662045</v>
+        <v>6.898913598882207</v>
       </c>
       <c r="M12">
-        <v>14.55007692541036</v>
+        <v>11.11968280552496</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.31586514422911</v>
+        <v>16.25405886254417</v>
       </c>
       <c r="C13">
-        <v>7.054519842660191</v>
+        <v>7.417567237034481</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.6625841086359</v>
+        <v>7.263901945306007</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>44.57005507223386</v>
+        <v>34.95164083787091</v>
       </c>
       <c r="H13">
-        <v>18.21686797820021</v>
+        <v>11.67544557394809</v>
       </c>
       <c r="I13">
-        <v>28.879130086609</v>
+        <v>19.08233649154269</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.75389492443806</v>
+        <v>13.41457333667183</v>
       </c>
       <c r="L13">
-        <v>10.29814099900733</v>
+        <v>6.892729076504239</v>
       </c>
       <c r="M13">
-        <v>14.54772054079969</v>
+        <v>11.10065261000628</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.27452408104784</v>
+        <v>16.10702632088437</v>
       </c>
       <c r="C14">
-        <v>7.040200165148254</v>
+        <v>7.375999459217204</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.66535952516938</v>
+        <v>7.258480041182286</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>44.58240049404401</v>
+        <v>34.8825368959869</v>
       </c>
       <c r="H14">
-        <v>18.22587334529862</v>
+        <v>11.68561922329361</v>
       </c>
       <c r="I14">
-        <v>28.89506718665683</v>
+        <v>19.1016126292336</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.72466553720569</v>
+        <v>13.30207647716949</v>
       </c>
       <c r="L14">
-        <v>10.2981967205795</v>
+        <v>6.872622696081961</v>
       </c>
       <c r="M14">
-        <v>14.54008659747754</v>
+        <v>11.03850922040858</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.24918055548512</v>
+        <v>16.01641023999082</v>
       </c>
       <c r="C15">
-        <v>7.031400212674975</v>
+        <v>7.35045377209223</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.66708602404692</v>
+        <v>7.255226804316298</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>44.59019832743512</v>
+        <v>34.84117520907549</v>
       </c>
       <c r="H15">
-        <v>18.2314459685924</v>
+        <v>11.69205667208917</v>
       </c>
       <c r="I15">
-        <v>28.90493002474884</v>
+        <v>19.11380816921527</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.70675635391301</v>
+        <v>13.23277036878441</v>
       </c>
       <c r="L15">
-        <v>10.29825831554303</v>
+        <v>6.860355217327147</v>
       </c>
       <c r="M15">
-        <v>14.5354496825817</v>
+        <v>11.0003826692371</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.10366751702623</v>
+        <v>15.48857875188435</v>
       </c>
       <c r="C16">
-        <v>6.980535708485509</v>
+        <v>7.202771172734539</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.67738598868928</v>
+        <v>7.237612758848664</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>44.6384940121101</v>
+        <v>34.61869224282923</v>
       </c>
       <c r="H16">
-        <v>18.26424716808432</v>
+        <v>11.73202221205605</v>
       </c>
       <c r="I16">
-        <v>28.96299527601665</v>
+        <v>19.1894890993813</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.60407207781148</v>
+        <v>12.82946979508577</v>
       </c>
       <c r="L16">
-        <v>10.29903284577875</v>
+        <v>6.790798663549278</v>
       </c>
       <c r="M16">
-        <v>14.50948098995036</v>
+        <v>10.7809852170079</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.01419603261933</v>
+        <v>15.15709089206235</v>
       </c>
       <c r="C17">
-        <v>6.948948765460456</v>
+        <v>7.111022837264438</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.68406736253517</v>
+        <v>7.227713561331512</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>44.67133550283195</v>
+        <v>34.49488778084547</v>
       </c>
       <c r="H17">
-        <v>18.28514261548449</v>
+        <v>11.75919976526735</v>
       </c>
       <c r="I17">
-        <v>28.99999395711596</v>
+        <v>19.24091737295769</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.54106100028162</v>
+        <v>12.57655583196179</v>
       </c>
       <c r="L17">
-        <v>10.29988479407011</v>
+        <v>6.74879553495655</v>
       </c>
       <c r="M17">
-        <v>14.49409328774633</v>
+        <v>10.64562615725887</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.96267773200013</v>
+        <v>14.96358451830493</v>
       </c>
       <c r="C18">
-        <v>6.93064213706554</v>
+        <v>7.057830358372898</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.68804371650597</v>
+        <v>7.2223483032966</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>44.6914031442357</v>
+        <v>34.42822018501619</v>
       </c>
       <c r="H18">
-        <v>18.29744501471772</v>
+        <v>11.77577664486423</v>
       </c>
       <c r="I18">
-        <v>29.02178031076386</v>
+        <v>19.2722699065032</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.50482445982393</v>
+        <v>12.42905421514172</v>
       </c>
       <c r="L18">
-        <v>10.30051352838695</v>
+        <v>6.724883496524936</v>
       </c>
       <c r="M18">
-        <v>14.48544413893546</v>
+        <v>10.56750907241995</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.9452265435869</v>
+        <v>14.89757629602201</v>
       </c>
       <c r="C19">
-        <v>6.924420222347138</v>
+        <v>7.039748125762308</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.68941296525843</v>
+        <v>7.22058770231697</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>44.69839975417989</v>
+        <v>34.40641625631566</v>
       </c>
       <c r="H19">
-        <v>18.30165913768493</v>
+        <v>11.78154860507007</v>
       </c>
       <c r="I19">
-        <v>29.02924359694616</v>
+        <v>19.28318369736917</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.49255754988925</v>
+        <v>12.37876277367504</v>
       </c>
       <c r="L19">
-        <v>10.30075025392071</v>
+        <v>6.716829889352018</v>
       </c>
       <c r="M19">
-        <v>14.48255045308556</v>
+        <v>10.54101688518561</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.02372670600361</v>
+        <v>15.1926721495172</v>
       </c>
       <c r="C20">
-        <v>6.952325649214219</v>
+        <v>7.120833242370593</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.68334231472217</v>
+        <v>7.228733245567685</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>44.66771747528328</v>
+        <v>34.50759424624316</v>
       </c>
       <c r="H20">
-        <v>18.28288887387768</v>
+        <v>11.75620813856221</v>
       </c>
       <c r="I20">
-        <v>28.99600303490412</v>
+        <v>19.23525786819571</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.54776831795614</v>
+        <v>12.60368906178709</v>
       </c>
       <c r="L20">
-        <v>10.29977975146157</v>
+        <v>6.753241310491513</v>
       </c>
       <c r="M20">
-        <v>14.49571052570331</v>
+        <v>10.66006294393586</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.28667141331724</v>
+        <v>16.15032875914178</v>
       </c>
       <c r="C21">
-        <v>7.044412201895647</v>
+        <v>7.388226474002046</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.66453880116153</v>
+        <v>7.260058422964241</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>44.57872516690086</v>
+        <v>34.90263234700529</v>
       </c>
       <c r="H21">
-        <v>18.22321645933983</v>
+        <v>11.68258789619826</v>
       </c>
       <c r="I21">
-        <v>28.89036504266634</v>
+        <v>19.09586944243071</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.73325209582425</v>
+        <v>13.33520251930029</v>
       </c>
       <c r="L21">
-        <v>10.29817463183673</v>
+        <v>6.878518378730197</v>
       </c>
       <c r="M21">
-        <v>14.54232073469646</v>
+        <v>11.05677523785028</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.45763298981475</v>
+        <v>16.75134242607676</v>
       </c>
       <c r="C22">
-        <v>7.103315719226851</v>
+        <v>7.559216316691628</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.65343495521162</v>
+        <v>7.283554975953704</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>44.53111443597626</v>
+        <v>35.20375193478407</v>
       </c>
       <c r="H22">
-        <v>18.18674882036906</v>
+        <v>11.6435950442761</v>
       </c>
       <c r="I22">
-        <v>28.82583926529598</v>
+        <v>19.02197428900493</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.85427023584828</v>
+        <v>13.79542281724181</v>
       </c>
       <c r="L22">
-        <v>10.29835548321108</v>
+        <v>6.962558788052717</v>
       </c>
       <c r="M22">
-        <v>14.57453796462816</v>
+        <v>11.31332785509914</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.36648696386902</v>
+        <v>16.43282343509935</v>
       </c>
       <c r="C23">
-        <v>7.071997120082746</v>
+        <v>7.468300298396481</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.65925295830886</v>
+        <v>7.270732947453032</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>44.55555701589132</v>
+        <v>35.0389913140883</v>
       </c>
       <c r="H23">
-        <v>18.20598045100356</v>
+        <v>11.66353598185971</v>
       </c>
       <c r="I23">
-        <v>28.8598642212712</v>
+        <v>19.05976789221995</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.78971171636097</v>
+        <v>13.55141702566252</v>
       </c>
       <c r="L23">
-        <v>10.29814669893381</v>
+        <v>6.917508369966739</v>
       </c>
       <c r="M23">
-        <v>14.55718441389292</v>
+        <v>11.17666683927704</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.01941813326471</v>
+        <v>15.1765949929397</v>
       </c>
       <c r="C24">
-        <v>6.95079941707248</v>
+        <v>7.116399344422445</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.68366968786009</v>
+        <v>7.228271232236727</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>44.6693494898764</v>
+        <v>34.50183563601738</v>
       </c>
       <c r="H24">
-        <v>18.28390688922769</v>
+        <v>11.75755769493871</v>
       </c>
       <c r="I24">
-        <v>28.99780572573282</v>
+        <v>19.2378109835314</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.54473596984442</v>
+        <v>12.59142866581926</v>
       </c>
       <c r="L24">
-        <v>10.29982680839089</v>
+        <v>6.75123063950364</v>
       </c>
       <c r="M24">
-        <v>14.49497875696668</v>
+        <v>10.65353699433256</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.64312633273737</v>
+        <v>13.71259847685535</v>
       </c>
       <c r="C25">
-        <v>6.814796021334754</v>
+        <v>6.720767539587198</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.71510878719103</v>
+        <v>7.194970710963816</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>44.83709007253414</v>
+        <v>34.09444931028987</v>
       </c>
       <c r="H25">
-        <v>18.37881481547063</v>
+        <v>11.89475237634665</v>
       </c>
       <c r="I25">
-        <v>29.16592492885124</v>
+        <v>19.49690588656913</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.28087027872123</v>
+        <v>11.47815133224101</v>
       </c>
       <c r="L25">
-        <v>10.30694482547639</v>
+        <v>6.581341235611007</v>
       </c>
       <c r="M25">
-        <v>14.43560156337159</v>
+        <v>10.07955377832461</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.538488800183</v>
+        <v>24.57726700690615</v>
       </c>
       <c r="C2">
-        <v>6.41598270484174</v>
+        <v>18.72994801111324</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.180662450040126</v>
+        <v>27.81763776297332</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>34.59345128714452</v>
       </c>
       <c r="G2">
-        <v>33.92806812061751</v>
+        <v>12.60499037337381</v>
       </c>
       <c r="H2">
-        <v>12.02311532019831</v>
+        <v>2.226386170093845</v>
       </c>
       <c r="I2">
-        <v>19.73845785620613</v>
+        <v>3.304557546145663</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.695350876082476</v>
       </c>
       <c r="K2">
-        <v>10.59054854645528</v>
+        <v>9.623843916360043</v>
       </c>
       <c r="L2">
-        <v>6.464558313145257</v>
+        <v>5.047621911049819</v>
       </c>
       <c r="M2">
-        <v>9.651139464181082</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>9.716782595462989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.70786131002444</v>
+        <v>22.99890156827629</v>
       </c>
       <c r="C3">
-        <v>6.201336553058507</v>
+        <v>17.65463508543564</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.177062561844901</v>
+        <v>26.27896525384762</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>33.03845185993406</v>
       </c>
       <c r="G3">
-        <v>33.89107284004802</v>
+        <v>12.57777011490236</v>
       </c>
       <c r="H3">
-        <v>12.12561522264318</v>
+        <v>1.965023899609454</v>
       </c>
       <c r="I3">
-        <v>19.9307228989391</v>
+        <v>3.163326210099665</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.809903810025647</v>
       </c>
       <c r="K3">
-        <v>9.946377856235669</v>
+        <v>9.962468897681594</v>
       </c>
       <c r="L3">
-        <v>6.390669944996379</v>
+        <v>4.982860707475792</v>
       </c>
       <c r="M3">
-        <v>9.358760017191251</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>9.872598814460231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.21145615478824</v>
+        <v>21.97148992022231</v>
       </c>
       <c r="C4">
-        <v>6.065708219822241</v>
+        <v>16.96454721200382</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.177768717264657</v>
+        <v>25.28918032972688</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>32.05467966720407</v>
       </c>
       <c r="G4">
-        <v>33.90314535506896</v>
+        <v>12.58564807157257</v>
       </c>
       <c r="H4">
-        <v>12.1957286003052</v>
+        <v>1.798794164275098</v>
       </c>
       <c r="I4">
-        <v>20.0619209084973</v>
+        <v>3.074590549696838</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.883792019045265</v>
       </c>
       <c r="K4">
-        <v>9.529820394061073</v>
+        <v>10.17557078370752</v>
       </c>
       <c r="L4">
-        <v>6.347914780642866</v>
+        <v>4.94150011795174</v>
       </c>
       <c r="M4">
-        <v>9.178838398134179</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>9.977568094454355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.00366402154361</v>
+        <v>21.53800713154276</v>
       </c>
       <c r="C5">
-        <v>6.009503573068004</v>
+        <v>16.68923968624866</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.178776423810105</v>
+        <v>24.87957174810676</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>31.64211622732023</v>
       </c>
       <c r="G5">
-        <v>33.91642470870917</v>
+        <v>12.58084871972859</v>
       </c>
       <c r="H5">
-        <v>12.22603956261061</v>
+        <v>1.72951746808881</v>
       </c>
       <c r="I5">
-        <v>20.11855965745161</v>
+        <v>3.038364056757102</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.912916832850343</v>
       </c>
       <c r="K5">
-        <v>9.354792579621382</v>
+        <v>10.26310943493849</v>
       </c>
       <c r="L5">
-        <v>6.331151102386554</v>
+        <v>4.923840474996704</v>
       </c>
       <c r="M5">
-        <v>9.10551790484152</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.0175665757161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.96883177072839</v>
+        <v>21.46496410586501</v>
       </c>
       <c r="C6">
-        <v>6.00011531284644</v>
+        <v>16.65933035065913</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.178986840616622</v>
+        <v>24.81682540877535</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>31.567300466778</v>
       </c>
       <c r="G6">
-        <v>33.91912325008776</v>
+        <v>12.56351728873148</v>
       </c>
       <c r="H6">
-        <v>12.23117587142081</v>
+        <v>1.71784293422426</v>
       </c>
       <c r="I6">
-        <v>20.12815253195226</v>
+        <v>3.033053177522037</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.915546966113953</v>
       </c>
       <c r="K6">
-        <v>9.325411194384484</v>
+        <v>10.27698693041963</v>
       </c>
       <c r="L6">
-        <v>6.328407380407917</v>
+        <v>4.920397835130827</v>
       </c>
       <c r="M6">
-        <v>9.093346058785814</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.01826478054767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.20867591053525</v>
+        <v>21.96523441356292</v>
       </c>
       <c r="C7">
-        <v>6.0649539678609</v>
+        <v>17.00435178610292</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.177779410340536</v>
+        <v>25.29956828449076</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>32.03327267972501</v>
       </c>
       <c r="G7">
-        <v>33.90329111139542</v>
+        <v>12.53948213416611</v>
       </c>
       <c r="H7">
-        <v>12.19613042657056</v>
+        <v>1.797649344327751</v>
       </c>
       <c r="I7">
-        <v>20.06267207237323</v>
+        <v>3.075821335989203</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.878008056307459</v>
       </c>
       <c r="K7">
-        <v>9.527481250877212</v>
+        <v>10.1748183997973</v>
       </c>
       <c r="L7">
-        <v>6.347686027568719</v>
+        <v>4.939950290871159</v>
       </c>
       <c r="M7">
-        <v>9.177849440332409</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>9.96146559371514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.24934385415839</v>
+        <v>24.04459615429953</v>
       </c>
       <c r="C8">
-        <v>6.342784632420768</v>
+        <v>18.41922803896933</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.178807830136613</v>
+        <v>27.31612404303874</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>34.04378110368916</v>
       </c>
       <c r="G8">
-        <v>33.90785962408063</v>
+        <v>12.5296575039375</v>
       </c>
       <c r="H8">
-        <v>12.05692664189724</v>
+        <v>2.137191738990107</v>
       </c>
       <c r="I8">
-        <v>19.80194064686092</v>
+        <v>3.258185026009045</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.725881588280995</v>
       </c>
       <c r="K8">
-        <v>10.37280764815016</v>
+        <v>9.737498543437786</v>
       </c>
       <c r="L8">
-        <v>6.438541148972486</v>
+        <v>5.023936150057978</v>
       </c>
       <c r="M8">
-        <v>9.550467620138315</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>9.746272760409031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.22052659672644</v>
+        <v>27.66117815882089</v>
       </c>
       <c r="C9">
-        <v>6.856162280859039</v>
+        <v>20.88205482689624</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.204565769428636</v>
+        <v>30.88069058968735</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>37.76573017227498</v>
       </c>
       <c r="G9">
-        <v>34.20994437763103</v>
+        <v>12.8037315798755</v>
       </c>
       <c r="H9">
-        <v>11.84407178434531</v>
+        <v>2.758806822897629</v>
       </c>
       <c r="I9">
-        <v>19.40130238117294</v>
+        <v>3.59818214454064</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.468455884349515</v>
       </c>
       <c r="K9">
-        <v>11.86365372339303</v>
+        <v>8.922634502459509</v>
       </c>
       <c r="L9">
-        <v>6.637289537183463</v>
+        <v>5.178497872995813</v>
       </c>
       <c r="M9">
-        <v>10.27398994564198</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>9.435396625045497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.52602004238458</v>
+        <v>30.03676649040536</v>
       </c>
       <c r="C10">
-        <v>7.213183100959027</v>
+        <v>22.5404816994571</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.238787172840891</v>
+        <v>32.83320038853212</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>39.92670302153588</v>
       </c>
       <c r="G10">
-        <v>34.63344324249324</v>
+        <v>13.00540150531295</v>
       </c>
       <c r="H10">
-        <v>11.72905145034243</v>
+        <v>3.165338493054085</v>
       </c>
       <c r="I10">
-        <v>19.18386561423561</v>
+        <v>3.83703046154572</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.281575949554677</v>
       </c>
       <c r="K10">
-        <v>12.85805438440349</v>
+        <v>8.351923876032719</v>
       </c>
       <c r="L10">
-        <v>6.795624862623692</v>
+        <v>5.257248093177494</v>
       </c>
       <c r="M10">
-        <v>10.79639367367039</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>9.213181572293557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.08973067813023</v>
+        <v>31.04253063587614</v>
       </c>
       <c r="C11">
-        <v>7.371119337854497</v>
+        <v>23.16560309603797</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.257853908094937</v>
+        <v>29.9045329237995</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>37.43252330659094</v>
       </c>
       <c r="G11">
-        <v>34.87457017213663</v>
+        <v>11.97299336555735</v>
       </c>
       <c r="H11">
-        <v>11.68683812060248</v>
+        <v>3.738557601642788</v>
       </c>
       <c r="I11">
-        <v>19.10392188902486</v>
+        <v>3.91930384750792</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.058489210292378</v>
       </c>
       <c r="K11">
-        <v>13.28884668942171</v>
+        <v>8.164901783918628</v>
       </c>
       <c r="L11">
-        <v>6.870273913179588</v>
+        <v>5.136663981206363</v>
       </c>
       <c r="M11">
-        <v>11.03122189843073</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>8.703304439937014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.29892328924599</v>
+        <v>31.40952946593408</v>
       </c>
       <c r="C12">
-        <v>7.430279727124987</v>
+        <v>23.30019614759523</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.265591659694954</v>
+        <v>27.00365398019699</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>34.86962019202082</v>
       </c>
       <c r="G12">
-        <v>34.97321869931312</v>
+        <v>11.0979190284719</v>
       </c>
       <c r="H12">
-        <v>11.67240888778526</v>
+        <v>4.73911373499895</v>
       </c>
       <c r="I12">
-        <v>19.07658230698924</v>
+        <v>3.937554566923497</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.917957640235497</v>
       </c>
       <c r="K12">
-        <v>13.4489099321349</v>
+        <v>8.149008875046841</v>
       </c>
       <c r="L12">
-        <v>6.898913598882207</v>
+        <v>5.132449140282676</v>
       </c>
       <c r="M12">
-        <v>11.11968280552496</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>8.340056300937608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.25405886254417</v>
+        <v>31.31953224133494</v>
       </c>
       <c r="C13">
-        <v>7.417567237034481</v>
+        <v>23.12236430613715</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.263901945306007</v>
+        <v>23.89490671930609</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>32.01775985187801</v>
       </c>
       <c r="G13">
-        <v>34.95164083787091</v>
+        <v>10.20657711058226</v>
       </c>
       <c r="H13">
-        <v>11.67544557394809</v>
+        <v>5.895021633247699</v>
       </c>
       <c r="I13">
-        <v>19.08233649154269</v>
+        <v>3.910685635960187</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.823857976844272</v>
       </c>
       <c r="K13">
-        <v>13.41457333667183</v>
+        <v>8.256121703595429</v>
       </c>
       <c r="L13">
-        <v>6.892729076504239</v>
+        <v>5.212575323280736</v>
       </c>
       <c r="M13">
-        <v>11.10065261000628</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8.044012846967886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.10702632088437</v>
+        <v>31.0485398804624</v>
       </c>
       <c r="C14">
-        <v>7.375999459217204</v>
+        <v>22.8644799312799</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.258480041182286</v>
+        <v>21.60363715531179</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>29.86176544606688</v>
       </c>
       <c r="G14">
-        <v>34.8825368959869</v>
+        <v>9.564468606101846</v>
       </c>
       <c r="H14">
-        <v>11.68561922329361</v>
+        <v>6.761429188414043</v>
       </c>
       <c r="I14">
-        <v>19.1016126292336</v>
+        <v>3.872398408595491</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.779017449424177</v>
       </c>
       <c r="K14">
-        <v>13.30207647716949</v>
+        <v>8.387662002657963</v>
       </c>
       <c r="L14">
-        <v>6.872622696081961</v>
+        <v>5.317723268075151</v>
       </c>
       <c r="M14">
-        <v>11.03850922040858</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>7.868096112625475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.01641023999082</v>
+        <v>30.88355111870696</v>
       </c>
       <c r="C15">
-        <v>7.35045377209223</v>
+        <v>22.74769308135729</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.255226804316298</v>
+        <v>20.99908439300258</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>29.26822250980261</v>
       </c>
       <c r="G15">
-        <v>34.84117520907549</v>
+        <v>9.393014060470232</v>
       </c>
       <c r="H15">
-        <v>11.69205667208917</v>
+        <v>6.95902531803341</v>
       </c>
       <c r="I15">
-        <v>19.11380816921527</v>
+        <v>3.854238426408473</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.776486048982838</v>
       </c>
       <c r="K15">
-        <v>13.23277036878441</v>
+        <v>8.444687110971639</v>
       </c>
       <c r="L15">
-        <v>6.860355217327147</v>
+        <v>5.345832786256486</v>
       </c>
       <c r="M15">
-        <v>11.0003826692371</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7.835926021765048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.48857875188435</v>
+        <v>29.92918421238997</v>
       </c>
       <c r="C16">
-        <v>7.202771172734539</v>
+        <v>22.11510516920581</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.237612758848664</v>
+        <v>20.60918212332188</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>28.77014270703127</v>
       </c>
       <c r="G16">
-        <v>34.61869224282923</v>
+        <v>9.427406341968293</v>
       </c>
       <c r="H16">
-        <v>11.73202221205605</v>
+        <v>6.677418368525549</v>
       </c>
       <c r="I16">
-        <v>19.1894890993813</v>
+        <v>3.759581571691426</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.874264565697755</v>
       </c>
       <c r="K16">
-        <v>12.82946979508577</v>
+        <v>8.649064807187949</v>
       </c>
       <c r="L16">
-        <v>6.790798663549278</v>
+        <v>5.291246705667406</v>
       </c>
       <c r="M16">
-        <v>10.7809852170079</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7.988153169432183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.15709089206235</v>
+        <v>29.33135163784739</v>
       </c>
       <c r="C17">
-        <v>7.111022837264438</v>
+        <v>21.76512258254013</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.227713561331512</v>
+        <v>21.57299530166553</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>29.57238374144572</v>
       </c>
       <c r="G17">
-        <v>34.49488778084547</v>
+        <v>9.801012041046008</v>
       </c>
       <c r="H17">
-        <v>11.75919976526735</v>
+        <v>5.948579654227844</v>
       </c>
       <c r="I17">
-        <v>19.24091737295769</v>
+        <v>3.707262333731594</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.972040753554424</v>
       </c>
       <c r="K17">
-        <v>12.57655583196179</v>
+        <v>8.739247022447913</v>
       </c>
       <c r="L17">
-        <v>6.74879553495655</v>
+        <v>5.184207595031291</v>
       </c>
       <c r="M17">
-        <v>10.64562615725887</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8.194791275103091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.96358451830493</v>
+        <v>28.98691447815762</v>
       </c>
       <c r="C18">
-        <v>7.057830358372898</v>
+        <v>21.59627066785843</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.2223483032966</v>
+        <v>23.83804751478451</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>31.60277831872941</v>
       </c>
       <c r="G18">
-        <v>34.42822018501619</v>
+        <v>10.52756998042087</v>
       </c>
       <c r="H18">
-        <v>11.77577664486423</v>
+        <v>4.811101020803068</v>
       </c>
       <c r="I18">
-        <v>19.2722699065032</v>
+        <v>3.683838281158877</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.085281718818544</v>
       </c>
       <c r="K18">
-        <v>12.42905421514172</v>
+        <v>8.745608170341113</v>
       </c>
       <c r="L18">
-        <v>6.724883496524936</v>
+        <v>5.070954060520845</v>
       </c>
       <c r="M18">
-        <v>10.56750907241995</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8.482925311035903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.89757629602201</v>
+        <v>28.87671988693585</v>
       </c>
       <c r="C19">
-        <v>7.039748125762308</v>
+        <v>21.65495712369679</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.22058770231697</v>
+        <v>27.00678720415926</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>34.43085374440559</v>
       </c>
       <c r="G19">
-        <v>34.40641625631566</v>
+        <v>11.4018662579088</v>
       </c>
       <c r="H19">
-        <v>11.78154860507007</v>
+        <v>3.637007288158027</v>
       </c>
       <c r="I19">
-        <v>19.28318369736917</v>
+        <v>3.692941653684203</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.194398509885403</v>
       </c>
       <c r="K19">
-        <v>12.37876277367504</v>
+        <v>8.703606856867529</v>
       </c>
       <c r="L19">
-        <v>6.716829889352018</v>
+        <v>5.041934045968941</v>
       </c>
       <c r="M19">
-        <v>10.54101688518561</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>8.792899508056253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.1926721495172</v>
+        <v>29.43069337618095</v>
       </c>
       <c r="C20">
-        <v>7.120833242370593</v>
+        <v>22.22272634970733</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.228733245567685</v>
+        <v>32.35127332636606</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>39.31049897342385</v>
       </c>
       <c r="G20">
-        <v>34.50759424624316</v>
+        <v>12.80061433308661</v>
       </c>
       <c r="H20">
-        <v>11.75620813856221</v>
+        <v>3.057604041755434</v>
       </c>
       <c r="I20">
-        <v>19.23525786819571</v>
+        <v>3.781744297408231</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.308894943845408</v>
       </c>
       <c r="K20">
-        <v>12.60368906178709</v>
+        <v>8.499585590512453</v>
       </c>
       <c r="L20">
-        <v>6.753241310491513</v>
+        <v>5.232106107050295</v>
       </c>
       <c r="M20">
-        <v>10.66006294393586</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9.212046537255342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.15032875914178</v>
+        <v>31.16885129658473</v>
       </c>
       <c r="C21">
-        <v>7.388226474002046</v>
+        <v>23.44522909166952</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.260058422964241</v>
+        <v>34.45772322659813</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>41.54254075516298</v>
       </c>
       <c r="G21">
-        <v>34.90263234700529</v>
+        <v>13.23369276757824</v>
       </c>
       <c r="H21">
-        <v>11.68258789619826</v>
+        <v>3.401117748663243</v>
       </c>
       <c r="I21">
-        <v>19.09586944243071</v>
+        <v>3.966489194186487</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.200525402180237</v>
       </c>
       <c r="K21">
-        <v>13.33520251930029</v>
+        <v>8.061923917991493</v>
       </c>
       <c r="L21">
-        <v>6.878518378730197</v>
+        <v>5.33325851019074</v>
       </c>
       <c r="M21">
-        <v>11.05677523785028</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9.145380098937798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.75134242607676</v>
+        <v>32.25422332983276</v>
       </c>
       <c r="C22">
-        <v>7.559216316691628</v>
+        <v>24.16615423239478</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.283554975953704</v>
+        <v>35.54754024790277</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>42.77696428711327</v>
       </c>
       <c r="G22">
-        <v>35.20375193478407</v>
+        <v>13.536125148379</v>
       </c>
       <c r="H22">
-        <v>11.6435950442761</v>
+        <v>3.60839289096509</v>
       </c>
       <c r="I22">
-        <v>19.02197428900493</v>
+        <v>4.081364460833766</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.135006227867387</v>
       </c>
       <c r="K22">
-        <v>13.79542281724181</v>
+        <v>7.782272768405021</v>
       </c>
       <c r="L22">
-        <v>6.962558788052717</v>
+        <v>5.385834250684543</v>
       </c>
       <c r="M22">
-        <v>11.31332785509914</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9.115614081341244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.43282343509935</v>
+        <v>31.67982969427932</v>
       </c>
       <c r="C23">
-        <v>7.468300298396481</v>
+        <v>23.74529588487158</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.270732947453032</v>
+        <v>34.955867706839</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>42.13561261830439</v>
       </c>
       <c r="G23">
-        <v>35.0389913140883</v>
+        <v>13.42135245658454</v>
       </c>
       <c r="H23">
-        <v>11.66353598185971</v>
+        <v>3.498291428069433</v>
       </c>
       <c r="I23">
-        <v>19.05976789221995</v>
+        <v>4.017412809989181</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.177050197482518</v>
       </c>
       <c r="K23">
-        <v>13.55141702566252</v>
+        <v>7.931145429664142</v>
       </c>
       <c r="L23">
-        <v>6.917508369966739</v>
+        <v>5.359245378122099</v>
       </c>
       <c r="M23">
-        <v>11.17666683927704</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>9.150306646425831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.1765949929397</v>
+        <v>29.40338616100395</v>
       </c>
       <c r="C24">
-        <v>7.116399344422445</v>
+        <v>22.1534749652118</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.228271232236727</v>
+        <v>32.65066012638369</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>39.61656289831325</v>
       </c>
       <c r="G24">
-        <v>34.50183563601738</v>
+        <v>12.97259402700164</v>
       </c>
       <c r="H24">
-        <v>11.75755769493871</v>
+        <v>3.072764164664619</v>
       </c>
       <c r="I24">
-        <v>19.2378109835314</v>
+        <v>3.776685685086167</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.334155689249582</v>
       </c>
       <c r="K24">
-        <v>12.59142866581926</v>
+        <v>8.503028369487398</v>
       </c>
       <c r="L24">
-        <v>6.75123063950364</v>
+        <v>5.254123511348564</v>
       </c>
       <c r="M24">
-        <v>10.65353699433256</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9.279997729872697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.71259847685535</v>
+        <v>26.73144120143305</v>
       </c>
       <c r="C25">
-        <v>6.720767539587198</v>
+        <v>20.3093410912366</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.194970710963816</v>
+        <v>29.98052678241577</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>36.76245902161312</v>
       </c>
       <c r="G25">
-        <v>34.09444931028987</v>
+        <v>12.62378738892559</v>
       </c>
       <c r="H25">
-        <v>11.89475237634665</v>
+        <v>2.59495521707119</v>
       </c>
       <c r="I25">
-        <v>19.49690588656913</v>
+        <v>3.511208782368684</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.523352523779099</v>
       </c>
       <c r="K25">
-        <v>11.47815133224101</v>
+        <v>9.137259344308193</v>
       </c>
       <c r="L25">
-        <v>6.581341235611007</v>
+        <v>5.135757549898421</v>
       </c>
       <c r="M25">
-        <v>10.07955377832461</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9.479094358384536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.57726700690615</v>
+        <v>24.56813347762193</v>
       </c>
       <c r="C2">
-        <v>18.72994801111324</v>
+        <v>18.48438108162897</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>27.81763776297332</v>
+        <v>27.7105453233677</v>
       </c>
       <c r="F2">
-        <v>34.59345128714452</v>
+        <v>34.66950481874051</v>
       </c>
       <c r="G2">
-        <v>12.60499037337381</v>
+        <v>12.08175329307006</v>
       </c>
       <c r="H2">
-        <v>2.226386170093845</v>
+        <v>2.210267468156017</v>
       </c>
       <c r="I2">
-        <v>3.304557546145663</v>
+        <v>3.287833037975644</v>
       </c>
       <c r="J2">
-        <v>6.695350876082476</v>
+        <v>7.480940114264271</v>
       </c>
       <c r="K2">
-        <v>9.623843916360043</v>
+        <v>9.682526033440531</v>
       </c>
       <c r="L2">
-        <v>5.047621911049819</v>
+        <v>9.225180335013242</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.135115212857867</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.061876986479375</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.716782595462989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>9.888807105369803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99890156827629</v>
+        <v>22.99793118201994</v>
       </c>
       <c r="C3">
-        <v>17.65463508543564</v>
+        <v>17.34787002137023</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.27896525384762</v>
+        <v>26.16299604895468</v>
       </c>
       <c r="F3">
-        <v>33.03845185993406</v>
+        <v>33.13107844495669</v>
       </c>
       <c r="G3">
-        <v>12.57777011490236</v>
+        <v>12.04012285987296</v>
       </c>
       <c r="H3">
-        <v>1.965023899609454</v>
+        <v>1.953572178588689</v>
       </c>
       <c r="I3">
-        <v>3.163326210099665</v>
+        <v>3.162367191740659</v>
       </c>
       <c r="J3">
-        <v>6.809903810025647</v>
+        <v>7.557497344639187</v>
       </c>
       <c r="K3">
-        <v>9.962468897681594</v>
+        <v>9.99005115706515</v>
       </c>
       <c r="L3">
-        <v>4.982860707475792</v>
+        <v>9.411267505117003</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.490751159448531</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>4.996341381721235</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.872598814460231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10.03769949764773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.97148992022231</v>
+        <v>21.97584009628316</v>
       </c>
       <c r="C4">
-        <v>16.96454721200382</v>
+        <v>16.61775093830957</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.28918032972688</v>
+        <v>25.1679097183566</v>
       </c>
       <c r="F4">
-        <v>32.05467966720407</v>
+        <v>32.15719743760278</v>
       </c>
       <c r="G4">
-        <v>12.58564807157257</v>
+        <v>12.03907297696773</v>
       </c>
       <c r="H4">
-        <v>1.798794164275098</v>
+        <v>1.790268350914114</v>
       </c>
       <c r="I4">
-        <v>3.074590549696838</v>
+        <v>3.083671772604789</v>
       </c>
       <c r="J4">
-        <v>6.883792019045265</v>
+        <v>7.606264279603686</v>
       </c>
       <c r="K4">
-        <v>10.17557078370752</v>
+        <v>10.18387970709329</v>
       </c>
       <c r="L4">
-        <v>4.94150011795174</v>
+        <v>9.538858699887079</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.720523574168683</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>4.95444799798982</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9.977568094454355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.13650372030918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.53800713154276</v>
+        <v>21.54461317543624</v>
       </c>
       <c r="C5">
-        <v>16.68923968624866</v>
+        <v>16.32519286430406</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.87957174810676</v>
+        <v>24.75605187446086</v>
       </c>
       <c r="F5">
-        <v>31.64211622732023</v>
+        <v>31.74871376629117</v>
       </c>
       <c r="G5">
-        <v>12.58084871972859</v>
+        <v>12.03008204111107</v>
       </c>
       <c r="H5">
-        <v>1.72951746808881</v>
+        <v>1.722199188823399</v>
       </c>
       <c r="I5">
-        <v>3.038364056757102</v>
+        <v>3.051865250377623</v>
       </c>
       <c r="J5">
-        <v>6.912916832850343</v>
+        <v>7.624793123318753</v>
       </c>
       <c r="K5">
-        <v>10.26310943493849</v>
+        <v>10.26321237239581</v>
       </c>
       <c r="L5">
-        <v>4.923840474996704</v>
+        <v>9.591589865449667</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.818919388040991</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>4.936562988481259</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.0175665757161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.17358807972066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.46496410586501</v>
+        <v>21.47194754095653</v>
       </c>
       <c r="C6">
-        <v>16.65933035065913</v>
+        <v>16.2919677936644</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.81682540877535</v>
+        <v>24.69275545960449</v>
       </c>
       <c r="F6">
-        <v>31.567300466778</v>
+        <v>31.67474065400309</v>
       </c>
       <c r="G6">
-        <v>12.56351728873148</v>
+        <v>12.01144424147571</v>
       </c>
       <c r="H6">
-        <v>1.71784293422426</v>
+        <v>1.710724933701266</v>
       </c>
       <c r="I6">
-        <v>3.033053177522037</v>
+        <v>3.047619673377553</v>
       </c>
       <c r="J6">
-        <v>6.915546966113953</v>
+        <v>7.62572511688303</v>
       </c>
       <c r="K6">
-        <v>10.27698693041963</v>
+        <v>10.27536152176714</v>
       </c>
       <c r="L6">
-        <v>4.920397835130827</v>
+        <v>9.597479189481891</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.837787614554684</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4.933089822242763</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.01826478054767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.17383669143967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.96523441356292</v>
+        <v>21.96936274704864</v>
       </c>
       <c r="C7">
-        <v>17.00435178610292</v>
+        <v>16.64995277651892</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.29956828449076</v>
+        <v>25.18682670676608</v>
       </c>
       <c r="F7">
-        <v>32.03327267972501</v>
+        <v>32.12699645550682</v>
       </c>
       <c r="G7">
-        <v>12.53948213416611</v>
+        <v>12.07381293349464</v>
       </c>
       <c r="H7">
-        <v>1.797649344327751</v>
+        <v>1.788866301402813</v>
       </c>
       <c r="I7">
-        <v>3.075821335989203</v>
+        <v>3.085335611144701</v>
       </c>
       <c r="J7">
-        <v>6.878008056307459</v>
+        <v>7.573411558551404</v>
       </c>
       <c r="K7">
-        <v>10.1748183997973</v>
+        <v>10.18149000817556</v>
       </c>
       <c r="L7">
-        <v>4.939950290871159</v>
+        <v>9.529322530348106</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.730170305873235</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4.952201058138001</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9.96146559371514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.11139482412199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.04459615429953</v>
+        <v>24.03748909891808</v>
       </c>
       <c r="C8">
-        <v>18.41922803896933</v>
+        <v>18.13238777867266</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>27.31612404303874</v>
+        <v>27.23344303430142</v>
       </c>
       <c r="F8">
-        <v>34.04378110368916</v>
+        <v>34.09697480265432</v>
       </c>
       <c r="G8">
-        <v>12.5296575039375</v>
+        <v>12.27411235186624</v>
       </c>
       <c r="H8">
-        <v>2.137191738990107</v>
+        <v>2.121840267892936</v>
       </c>
       <c r="I8">
-        <v>3.258185026009045</v>
+        <v>3.246446239197092</v>
       </c>
       <c r="J8">
-        <v>6.725881588280995</v>
+        <v>7.410913029686316</v>
       </c>
       <c r="K8">
-        <v>9.737498543437786</v>
+        <v>9.783401074880341</v>
       </c>
       <c r="L8">
-        <v>5.023936150057978</v>
+        <v>9.273555466371416</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.266777372439436</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.035672993075561</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9.746272760409031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>9.886166371039238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.66117815882089</v>
+        <v>27.63488607703188</v>
       </c>
       <c r="C9">
-        <v>20.88205482689624</v>
+        <v>20.7324350000994</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>30.88069058968735</v>
+        <v>30.82476958357134</v>
       </c>
       <c r="F9">
-        <v>37.76573017227498</v>
+        <v>37.7715317243223</v>
       </c>
       <c r="G9">
-        <v>12.8037315798755</v>
+        <v>12.65274503326359</v>
       </c>
       <c r="H9">
-        <v>2.758806822897629</v>
+        <v>2.731984488539387</v>
       </c>
       <c r="I9">
-        <v>3.59818214454064</v>
+        <v>3.547901068904549</v>
       </c>
       <c r="J9">
-        <v>6.468455884349515</v>
+        <v>7.211080816300536</v>
       </c>
       <c r="K9">
-        <v>8.922634502459509</v>
+        <v>9.047851765808758</v>
       </c>
       <c r="L9">
-        <v>5.178497872995813</v>
+        <v>8.899882043785425</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.434404832085336</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.191337315615733</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9.435396625045497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>9.571223886243695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.03676649040536</v>
+        <v>29.99623091991237</v>
       </c>
       <c r="C10">
-        <v>22.5404816994571</v>
+        <v>22.44285039109182</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>32.83320038853212</v>
+        <v>32.83410892424637</v>
       </c>
       <c r="F10">
-        <v>39.92670302153588</v>
+        <v>39.85733049572438</v>
       </c>
       <c r="G10">
-        <v>13.00540150531295</v>
+        <v>13.38814830476541</v>
       </c>
       <c r="H10">
-        <v>3.165338493054085</v>
+        <v>3.129305818043757</v>
       </c>
       <c r="I10">
-        <v>3.83703046154572</v>
+        <v>3.758825095082527</v>
       </c>
       <c r="J10">
-        <v>6.281575949554677</v>
+        <v>6.913393400640862</v>
       </c>
       <c r="K10">
-        <v>8.351923876032719</v>
+        <v>8.537762043188685</v>
       </c>
       <c r="L10">
-        <v>5.257248093177494</v>
+        <v>8.701701717883743</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.888299372442443</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.267643107291485</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9.213181572293557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>9.283528972126334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.04253063587614</v>
+        <v>30.9956785534622</v>
       </c>
       <c r="C11">
-        <v>23.16560309603797</v>
+        <v>22.97576567067689</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>29.9045329237995</v>
+        <v>29.96952911146297</v>
       </c>
       <c r="F11">
-        <v>37.43252330659094</v>
+        <v>37.28549477239527</v>
       </c>
       <c r="G11">
-        <v>11.97299336555735</v>
+        <v>13.42563343266523</v>
       </c>
       <c r="H11">
-        <v>3.738557601642788</v>
+        <v>3.704631619669911</v>
       </c>
       <c r="I11">
-        <v>3.91930384750792</v>
+        <v>3.829916885021318</v>
       </c>
       <c r="J11">
-        <v>6.058489210292378</v>
+        <v>6.503955769373277</v>
       </c>
       <c r="K11">
-        <v>8.164901783918628</v>
+        <v>8.392270920159177</v>
       </c>
       <c r="L11">
-        <v>5.136663981206363</v>
+        <v>8.687833979726824</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.701648544007273</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.149878677822971</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8.703304439937014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>8.693826684939026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.40952946593408</v>
+        <v>31.3608050932562</v>
       </c>
       <c r="C12">
-        <v>23.30019614759523</v>
+        <v>23.0399585177599</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.00365398019699</v>
+        <v>27.08352824179357</v>
       </c>
       <c r="F12">
-        <v>34.86962019202082</v>
+        <v>34.69979988757492</v>
       </c>
       <c r="G12">
-        <v>11.0979190284719</v>
+        <v>13.06484385086892</v>
       </c>
       <c r="H12">
-        <v>4.73911373499895</v>
+        <v>4.712213602456928</v>
       </c>
       <c r="I12">
-        <v>3.937554566923497</v>
+        <v>3.844014900239004</v>
       </c>
       <c r="J12">
-        <v>5.917957640235497</v>
+        <v>6.350275306599741</v>
       </c>
       <c r="K12">
-        <v>8.149008875046841</v>
+        <v>8.397589189375047</v>
       </c>
       <c r="L12">
-        <v>5.132449140282676</v>
+        <v>8.72940020408277</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.675525626647655</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.152730809899904</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8.340056300937608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>8.315405575237563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.31953224133494</v>
+        <v>31.2725260181111</v>
       </c>
       <c r="C13">
-        <v>23.12236430613715</v>
+        <v>22.81319589389418</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.89490671930609</v>
+        <v>23.93533450189886</v>
       </c>
       <c r="F13">
-        <v>32.01775985187801</v>
+        <v>31.88439855750848</v>
       </c>
       <c r="G13">
-        <v>10.20657711058226</v>
+        <v>12.08344641515352</v>
       </c>
       <c r="H13">
-        <v>5.895021633247699</v>
+        <v>5.874917340939949</v>
       </c>
       <c r="I13">
-        <v>3.910685635960187</v>
+        <v>3.820104991648109</v>
       </c>
       <c r="J13">
-        <v>5.823857976844272</v>
+        <v>6.338432488147657</v>
       </c>
       <c r="K13">
-        <v>8.256121703595429</v>
+        <v>8.495637840028932</v>
       </c>
       <c r="L13">
-        <v>5.212575323280736</v>
+        <v>8.784891751282755</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.768507247841222</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.238109667165594</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8.044012846967886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>8.071857300352296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.0485398804624</v>
+        <v>31.00432510502092</v>
       </c>
       <c r="C14">
-        <v>22.8644799312799</v>
+        <v>22.52938040133837</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.60363715531179</v>
+        <v>21.59284782954463</v>
       </c>
       <c r="F14">
-        <v>29.86176544606688</v>
+        <v>29.77979775460019</v>
       </c>
       <c r="G14">
-        <v>9.564468606101846</v>
+        <v>11.10634528586885</v>
       </c>
       <c r="H14">
-        <v>6.761429188414043</v>
+        <v>6.74536140898627</v>
       </c>
       <c r="I14">
-        <v>3.872398408595491</v>
+        <v>3.787365156079221</v>
       </c>
       <c r="J14">
-        <v>5.779017449424177</v>
+        <v>6.377201069053166</v>
       </c>
       <c r="K14">
-        <v>8.387662002657963</v>
+        <v>8.602761973232283</v>
       </c>
       <c r="L14">
-        <v>5.317723268075151</v>
+        <v>8.825137903554502</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.889526321067071</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.34314337008247</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7.868096112625475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>7.957458389705343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.88355111870696</v>
+        <v>30.84077698907072</v>
       </c>
       <c r="C15">
-        <v>22.74769308135729</v>
+        <v>22.40950943539323</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.99908439300258</v>
+        <v>20.96637359890793</v>
       </c>
       <c r="F15">
-        <v>29.26822250980261</v>
+        <v>29.20980928273069</v>
       </c>
       <c r="G15">
-        <v>9.393014060470232</v>
+        <v>10.73746483975222</v>
       </c>
       <c r="H15">
-        <v>6.95902531803341</v>
+        <v>6.944049542882018</v>
       </c>
       <c r="I15">
-        <v>3.854238426408473</v>
+        <v>3.772503151597605</v>
       </c>
       <c r="J15">
-        <v>5.776486048982838</v>
+        <v>6.408419291437878</v>
       </c>
       <c r="K15">
-        <v>8.444687110971639</v>
+        <v>8.646604296105453</v>
       </c>
       <c r="L15">
-        <v>5.345832786256486</v>
+        <v>8.835650832979839</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.944265446854158</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.36986750582564</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7.835926021765048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>7.950610073802548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.92918421238997</v>
+        <v>29.89353577320352</v>
       </c>
       <c r="C16">
-        <v>22.11510516920581</v>
+        <v>21.8052845616539</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.60918212332188</v>
+        <v>20.50101389058594</v>
       </c>
       <c r="F16">
-        <v>28.77014270703127</v>
+        <v>28.80219262977154</v>
       </c>
       <c r="G16">
-        <v>9.427406341968293</v>
+        <v>9.831343305029536</v>
       </c>
       <c r="H16">
-        <v>6.677418368525549</v>
+        <v>6.664736382832233</v>
       </c>
       <c r="I16">
-        <v>3.759581571691426</v>
+        <v>3.692614341737474</v>
       </c>
       <c r="J16">
-        <v>5.874264565697755</v>
+        <v>6.642873653562671</v>
       </c>
       <c r="K16">
-        <v>8.649064807187949</v>
+        <v>8.796940410549853</v>
       </c>
       <c r="L16">
-        <v>5.291246705667406</v>
+        <v>8.837305216404836</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.157186963239059</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.307361403517189</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7.988153169432183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8.186794595074467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.33135163784739</v>
+        <v>29.29947134793881</v>
       </c>
       <c r="C17">
-        <v>21.76512258254013</v>
+        <v>21.48402127733941</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.57299530166553</v>
+        <v>21.44276625284898</v>
       </c>
       <c r="F17">
-        <v>29.57238374144572</v>
+        <v>29.63579106899861</v>
       </c>
       <c r="G17">
-        <v>9.801012041046008</v>
+        <v>9.797593471255773</v>
       </c>
       <c r="H17">
-        <v>5.948579654227844</v>
+        <v>5.935861442475625</v>
       </c>
       <c r="I17">
-        <v>3.707262333731594</v>
+        <v>3.648294905197753</v>
       </c>
       <c r="J17">
-        <v>5.972040753554424</v>
+        <v>6.804802627301394</v>
       </c>
       <c r="K17">
-        <v>8.739247022447913</v>
+        <v>8.868607005566359</v>
       </c>
       <c r="L17">
-        <v>5.184207595031291</v>
+        <v>8.834282396018498</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.259815858258334</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.198125503656196</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8.194791275103091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>8.41773095260751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.98691447815762</v>
+        <v>28.95656926293445</v>
       </c>
       <c r="C18">
-        <v>21.59627066785843</v>
+        <v>21.35890287079437</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.83804751478451</v>
+        <v>23.71382168285236</v>
       </c>
       <c r="F18">
-        <v>31.60277831872941</v>
+        <v>31.66606134044278</v>
       </c>
       <c r="G18">
-        <v>10.52756998042087</v>
+        <v>10.34349818848882</v>
       </c>
       <c r="H18">
-        <v>4.811101020803068</v>
+        <v>4.795810293284858</v>
       </c>
       <c r="I18">
-        <v>3.683838281158877</v>
+        <v>3.627339943166878</v>
       </c>
       <c r="J18">
-        <v>6.085281718818544</v>
+        <v>6.938234839310237</v>
       </c>
       <c r="K18">
-        <v>8.745608170341113</v>
+        <v>8.876811745997562</v>
       </c>
       <c r="L18">
-        <v>5.070954060520845</v>
+        <v>8.822008895110541</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.273885157397514</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.086001745820903</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8.482925311035903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>8.701420130492773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.87671988693585</v>
+        <v>28.84603295277303</v>
       </c>
       <c r="C19">
-        <v>21.65495712369679</v>
+        <v>21.47215905724335</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27.00678720415926</v>
+        <v>26.90360508467856</v>
       </c>
       <c r="F19">
-        <v>34.43085374440559</v>
+        <v>34.47601358382686</v>
       </c>
       <c r="G19">
-        <v>11.4018662579088</v>
+        <v>11.14971706758365</v>
       </c>
       <c r="H19">
-        <v>3.637007288158027</v>
+        <v>3.615638138086014</v>
       </c>
       <c r="I19">
-        <v>3.692941653684203</v>
+        <v>3.636487838858992</v>
       </c>
       <c r="J19">
-        <v>6.194398509885403</v>
+        <v>7.042747522618876</v>
       </c>
       <c r="K19">
-        <v>8.703606856867529</v>
+        <v>8.845066173722135</v>
       </c>
       <c r="L19">
-        <v>5.041934045968941</v>
+        <v>8.806764928312157</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.232494484331596</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.058397589280448</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8.792899508056253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>8.990714371011114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.43069337618095</v>
+        <v>29.39449220790153</v>
       </c>
       <c r="C20">
-        <v>22.22272634970733</v>
+        <v>22.12621372581019</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>32.35127332636606</v>
+        <v>32.31053079205871</v>
       </c>
       <c r="F20">
-        <v>39.31049897342385</v>
+        <v>39.28922598617365</v>
       </c>
       <c r="G20">
-        <v>12.80061433308661</v>
+        <v>12.76295908615509</v>
       </c>
       <c r="H20">
-        <v>3.057604041755434</v>
+        <v>3.024697912031399</v>
       </c>
       <c r="I20">
-        <v>3.781744297408231</v>
+        <v>3.714926651702071</v>
       </c>
       <c r="J20">
-        <v>6.308894943845408</v>
+        <v>7.062720421147219</v>
       </c>
       <c r="K20">
-        <v>8.499585590512453</v>
+        <v>8.668412024005487</v>
       </c>
       <c r="L20">
-        <v>5.232106107050295</v>
+        <v>8.746106440803189</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.028031764808204</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.245467640771143</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9.212046537255342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>9.337144113438804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.16885129658473</v>
+        <v>31.11853911846976</v>
       </c>
       <c r="C21">
-        <v>23.44522909166952</v>
+        <v>23.30877105433997</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>34.45772322659813</v>
+        <v>34.59683612491215</v>
       </c>
       <c r="F21">
-        <v>41.54254075516298</v>
+        <v>41.31937652873724</v>
       </c>
       <c r="G21">
-        <v>13.23369276757824</v>
+        <v>15.06169830745297</v>
       </c>
       <c r="H21">
-        <v>3.401117748663243</v>
+        <v>3.357365796982779</v>
       </c>
       <c r="I21">
-        <v>3.966489194186487</v>
+        <v>3.871706191245945</v>
       </c>
       <c r="J21">
-        <v>6.200525402180237</v>
+        <v>6.476426268415324</v>
       </c>
       <c r="K21">
-        <v>8.061923917991493</v>
+        <v>8.291066266396379</v>
       </c>
       <c r="L21">
-        <v>5.33325851019074</v>
+        <v>8.633874537643056</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.615850793421224</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.331667382509167</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9.145380098937798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>9.028042365805611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.25422332983276</v>
+        <v>32.19492503387305</v>
       </c>
       <c r="C22">
-        <v>24.16615423239478</v>
+        <v>23.99591585199358</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>35.54754024790277</v>
+        <v>35.808233060954</v>
       </c>
       <c r="F22">
-        <v>42.77696428711327</v>
+        <v>42.41737191540507</v>
       </c>
       <c r="G22">
-        <v>13.536125148379</v>
+        <v>16.66324548941964</v>
       </c>
       <c r="H22">
-        <v>3.60839289096509</v>
+        <v>3.557836288529449</v>
       </c>
       <c r="I22">
-        <v>4.081364460833766</v>
+        <v>3.967809626394156</v>
       </c>
       <c r="J22">
-        <v>6.135006227867387</v>
+        <v>6.190433391320671</v>
       </c>
       <c r="K22">
-        <v>7.782272768405021</v>
+        <v>8.057234143457674</v>
       </c>
       <c r="L22">
-        <v>5.385834250684543</v>
+        <v>8.586879896460127</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.353415985089556</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.373687979968557</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9.115614081341244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>8.819054813044406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.67982969427932</v>
+        <v>31.62566996851396</v>
       </c>
       <c r="C23">
-        <v>23.74529588487158</v>
+        <v>23.60627109534797</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>34.955867706839</v>
+        <v>35.13410824457689</v>
       </c>
       <c r="F23">
-        <v>42.13561261830439</v>
+        <v>41.8673282936515</v>
       </c>
       <c r="G23">
-        <v>13.42135245658454</v>
+        <v>15.65331228759968</v>
       </c>
       <c r="H23">
-        <v>3.498291428069433</v>
+        <v>3.451766857316362</v>
       </c>
       <c r="I23">
-        <v>4.017412809989181</v>
+        <v>3.913391876715364</v>
       </c>
       <c r="J23">
-        <v>6.177050197482518</v>
+        <v>6.367270607149811</v>
       </c>
       <c r="K23">
-        <v>7.931145429664142</v>
+        <v>8.177209369709624</v>
       </c>
       <c r="L23">
-        <v>5.359245378122099</v>
+        <v>8.605105704883648</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.494157487705268</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.354334981886762</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9.150306646425831</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>8.973881286084765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.40338616100395</v>
+        <v>29.36723138916311</v>
       </c>
       <c r="C24">
-        <v>22.1534749652118</v>
+        <v>22.06453559448974</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>32.65066012638369</v>
+        <v>32.61153587000361</v>
       </c>
       <c r="F24">
-        <v>39.61656289831325</v>
+        <v>39.59391072354778</v>
       </c>
       <c r="G24">
-        <v>12.97259402700164</v>
+        <v>12.9144509032782</v>
       </c>
       <c r="H24">
-        <v>3.072764164664619</v>
+        <v>3.039851908469654</v>
       </c>
       <c r="I24">
-        <v>3.776685685086167</v>
+        <v>3.708145985638521</v>
       </c>
       <c r="J24">
-        <v>6.334155689249582</v>
+        <v>7.088440422295085</v>
       </c>
       <c r="K24">
-        <v>8.503028369487398</v>
+        <v>8.671143080290546</v>
       </c>
       <c r="L24">
-        <v>5.254123511348564</v>
+        <v>8.747537317030009</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.030560000272133</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.26712889788969</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9.279997729872697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>9.402248809260895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.73144120143305</v>
+        <v>26.71046187328343</v>
       </c>
       <c r="C25">
-        <v>20.3093410912366</v>
+        <v>20.13056358676203</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>29.98052678241577</v>
+        <v>29.90564181476722</v>
       </c>
       <c r="F25">
-        <v>36.76245902161312</v>
+        <v>36.7935192798367</v>
       </c>
       <c r="G25">
-        <v>12.62378738892559</v>
+        <v>12.32882420549539</v>
       </c>
       <c r="H25">
-        <v>2.59495521707119</v>
+        <v>2.57151735162988</v>
       </c>
       <c r="I25">
-        <v>3.511208782368684</v>
+        <v>3.47316301164247</v>
       </c>
       <c r="J25">
-        <v>6.523352523779099</v>
+        <v>7.291055988593233</v>
       </c>
       <c r="K25">
-        <v>9.137259344308193</v>
+        <v>9.240778684581645</v>
       </c>
       <c r="L25">
-        <v>5.135757549898421</v>
+        <v>8.985119968805481</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.651336634081141</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.149366929285452</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9.479094358384536</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>9.632561869084409</v>
       </c>
     </row>
   </sheetData>
